--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\Projects\2022. Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815299E7-47EB-4538-89E3-44F703200E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825434-1B17-49BB-87B0-07A012EAEA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>a280</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Environment</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>:cw_init</t>
   </si>
 </sst>
 </file>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -762,7 +768,7 @@
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -884,166 +890,164 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="11"/>
@@ -1055,7 +1059,7 @@
     </row>
     <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="11"/>
@@ -1067,7 +1071,7 @@
     </row>
     <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="11"/>
@@ -1079,7 +1083,7 @@
     </row>
     <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="11"/>
@@ -1091,7 +1095,7 @@
     </row>
     <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
@@ -1103,7 +1107,7 @@
     </row>
     <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="11"/>
@@ -1115,7 +1119,7 @@
     </row>
     <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
@@ -1127,7 +1131,7 @@
     </row>
     <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="11"/>
@@ -1139,7 +1143,7 @@
     </row>
     <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="11"/>
@@ -1151,7 +1155,7 @@
     </row>
     <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
@@ -1163,7 +1167,7 @@
     </row>
     <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="11"/>
@@ -1174,7 +1178,9 @@
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+      <c r="A52" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="B52" s="13"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -1183,181 +1189,188 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B55" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H55" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>48</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C56" s="4">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D55" s="4">
-        <v>33976.516901620198</v>
-      </c>
-      <c r="E55" s="3">
-        <f>D55/C55-1</f>
-        <v>1.0944489728329954E-2</v>
-      </c>
-      <c r="F55" s="7">
-        <f>0.75/1000</f>
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="G55" s="1">
-        <v>500</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1">
-        <v>101</v>
-      </c>
-      <c r="C56" s="1">
-        <v>629</v>
-      </c>
-      <c r="D56" s="6">
-        <v>650.08221188326297</v>
+      <c r="D56" s="4">
+        <v>33600.561458454999</v>
       </c>
       <c r="E56" s="3">
         <f>D56/C56-1</f>
-        <v>3.3517030021085858E-2</v>
-      </c>
-      <c r="F56" s="5">
-        <f>5.78/1000</f>
-        <v>5.7800000000000004E-3</v>
+        <v>-2.4176826132027429E-4</v>
+      </c>
+      <c r="F56" s="7">
+        <f>0.71/1000</f>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="G56" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H56" s="8">
-        <v>11.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4">
-        <v>6528</v>
-      </c>
-      <c r="D57" s="4">
-        <v>6637.2520884529904</v>
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>101</v>
+      </c>
+      <c r="C57" s="1">
+        <v>629</v>
+      </c>
+      <c r="D57" s="6">
+        <v>649.07960642191495</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>1.6735920412529248E-2</v>
+        <v>3.192306267395062E-2</v>
       </c>
       <c r="F57" s="5">
-        <f>18.63/1000</f>
-        <v>1.8630000000000001E-2</v>
+        <f>5.8/1000</f>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="G57" s="1">
         <v>2000</v>
       </c>
       <c r="H57" s="8">
-        <v>36.880000000000003</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4">
-        <v>15780</v>
+        <v>6528</v>
       </c>
       <c r="D58" s="4">
-        <v>15912.653705229301</v>
+        <v>6608.5571057628104</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" ref="E58:E59" si="0">D58/C58-1</f>
-        <v>8.4064451983081323E-3</v>
+        <f>D58/C58-1</f>
+        <v>1.2340242917097122E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>30.34/1000</f>
-        <v>3.0339999999999999E-2</v>
+        <f>18.46/1000</f>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
-        <v>59.12</v>
+        <v>36.880000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2">
+        <v>198</v>
+      </c>
+      <c r="C59" s="4">
+        <v>15780</v>
+      </c>
+      <c r="D59" s="4">
+        <v>15998.5986255771</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ref="E59:E60" si="0">D59/C59-1</f>
+        <v>1.3852891354695807E-2</v>
+      </c>
+      <c r="F59" s="5">
+        <f>29.65/1000</f>
+        <v>2.9649999999999999E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="8">
+        <v>59.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>280</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C60" s="4">
         <v>2634.70097254335</v>
       </c>
-      <c r="D59" s="4">
-        <v>2660.7110058850099</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D60" s="4">
+        <v>2647.63086294714</v>
+      </c>
+      <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>9.8721007099913383E-3</v>
-      </c>
-      <c r="F59" s="5">
-        <f>54.43/1000</f>
-        <v>5.4429999999999999E-2</v>
-      </c>
-      <c r="G59" s="1">
+        <v>4.9075362018440316E-3</v>
+      </c>
+      <c r="F60" s="5">
+        <f>55.41/1000</f>
+        <v>5.5409999999999994E-2</v>
+      </c>
+      <c r="G60" s="1">
         <v>3000</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H60" s="8">
         <v>164.60999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="9"/>
@@ -2012,6 +2025,9 @@
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="9"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825434-1B17-49BB-87B0-07A012EAEA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593ACB2-DDEF-4211-AAD1-64D9C93A8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>a280</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>:cw_init</t>
+  </si>
+  <si>
+    <t>rng</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1234)</t>
   </si>
 </sst>
 </file>
@@ -756,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,176 +896,174 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-    </row>
     <row r="17" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="13"/>
     </row>
     <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="11"/>
@@ -1071,7 +1075,7 @@
     </row>
     <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="11"/>
@@ -1083,7 +1087,7 @@
     </row>
     <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="11"/>
@@ -1095,7 +1099,7 @@
     </row>
     <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
@@ -1107,7 +1111,7 @@
     </row>
     <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="11"/>
@@ -1119,7 +1123,7 @@
     </row>
     <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
@@ -1131,7 +1135,7 @@
     </row>
     <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="11"/>
@@ -1143,7 +1147,7 @@
     </row>
     <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="11"/>
@@ -1155,7 +1159,7 @@
     </row>
     <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
@@ -1167,7 +1171,7 @@
     </row>
     <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="11"/>
@@ -1179,7 +1183,7 @@
     </row>
     <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="11"/>
@@ -1190,7 +1194,9 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="B53" s="13"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1199,181 +1205,188 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B56" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D56" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E56" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G56" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H56" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>48</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C57" s="4">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D57" s="4">
         <v>33600.561458454999</v>
       </c>
-      <c r="E56" s="3">
-        <f>D56/C56-1</f>
+      <c r="E57" s="3">
+        <f>D57/C57-1</f>
         <v>-2.4176826132027429E-4</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <f>0.71/1000</f>
         <v>7.0999999999999991E-4</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G57" s="1">
         <v>500</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H57" s="8">
         <v>0.34</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="1">
         <v>101</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58" s="1">
         <v>629</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>649.07960642191495</v>
       </c>
-      <c r="E57" s="3">
-        <f>D57/C57-1</f>
+      <c r="E58" s="3">
+        <f>D58/C58-1</f>
         <v>3.192306267395062E-2</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <f>5.8/1000</f>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G58" s="1">
         <v>2000</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H58" s="8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>150</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C59" s="4">
         <v>6528</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D59" s="4">
         <v>6608.5571057628104</v>
       </c>
-      <c r="E58" s="3">
-        <f>D58/C58-1</f>
+      <c r="E59" s="3">
+        <f>D59/C59-1</f>
         <v>1.2340242917097122E-2</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="5">
         <f>18.46/1000</f>
         <v>1.8460000000000001E-2</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G59" s="1">
         <v>2000</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H59" s="8">
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>198</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C60" s="4">
         <v>15780</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D60" s="4">
         <v>15998.5986255771</v>
       </c>
-      <c r="E59" s="3">
-        <f t="shared" ref="E59:E60" si="0">D59/C59-1</f>
+      <c r="E60" s="3">
+        <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
         <v>1.3852891354695807E-2</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <f>29.65/1000</f>
         <v>2.9649999999999999E-2</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <v>2000</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H60" s="8">
         <v>59.12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>280</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>2634.70097254335</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D61" s="4">
         <v>2647.63086294714</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <f t="shared" si="0"/>
         <v>4.9075362018440316E-3</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="5">
         <f>55.41/1000</f>
         <v>5.5409999999999994E-2</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <v>3000</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H61" s="8">
         <v>164.60999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
@@ -2028,6 +2041,9 @@
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="9"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593ACB2-DDEF-4211-AAD1-64D9C93A8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4B92AA-2461-4657-B726-7304CE499148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4B92AA-2461-4657-B726-7304CE499148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EE9BC-BEA6-44FA-A1C3-8E343A90A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>a280</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Best found</t>
   </si>
   <si>
-    <t>    )</t>
-  </si>
-  <si>
     <t>Instance</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>d198</t>
   </si>
   <si>
-    <t xml:space="preserve">                ]                       , </t>
-  </si>
-  <si>
     <t>                ]                       ,</t>
   </si>
   <si>
@@ -85,24 +79,9 @@
     <t>        Ψᵢ  =   [</t>
   </si>
   <si>
-    <t>                    :regret₂insert! ,</t>
-  </si>
-  <si>
-    <t>                    :regret₃insert!</t>
-  </si>
-  <si>
     <t>                    :swap!</t>
   </si>
   <si>
-    <t>        σ₁  =   33                      ,</t>
-  </si>
-  <si>
-    <t>        σ₂  =   9                       ,</t>
-  </si>
-  <si>
-    <t>        σ₃  =   13                      ,</t>
-  </si>
-  <si>
     <t>        ω   =   0.05                    ,</t>
   </si>
   <si>
@@ -112,9 +91,6 @@
     <t>        𝜃   =   0.99975                 ,</t>
   </si>
   <si>
-    <t>        C̲   =   30                      ,</t>
-  </si>
-  <si>
     <t>        C̅   =   60                      ,</t>
   </si>
   <si>
@@ -130,63 +106,21 @@
     <t>        Ψₗ  =   [</t>
   </si>
   <si>
-    <t>                    :move!          ,</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
-    <t>        k̲   =   n                      ,</t>
-  </si>
-  <si>
-    <t>        l̲   =   2n                     ,</t>
-  </si>
-  <si>
-    <t>        l̅   =   2n                     ,</t>
-  </si>
-  <si>
-    <t>        k̅   =   10n                    ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    :random_remove! , </t>
-  </si>
-  <si>
-    <t>                    :best_insert!   ,</t>
-  </si>
-  <si>
-    <t>                    :greedy_insert! ,</t>
-  </si>
-  <si>
-    <t>                    :opt!           ,</t>
-  </si>
-  <si>
     <t>        ρ   =   0.1                     ,</t>
   </si>
   <si>
     <t>Iterations</t>
   </si>
   <si>
-    <t>    x = length(N)</t>
-  </si>
-  <si>
-    <t>    n = ceil(x, digits=-(length(digits(x))-1))</t>
-  </si>
-  <si>
-    <t>                    :shaw_remove!   ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    :worst_remove!   </t>
-  </si>
-  <si>
     <t>ALNS parameters</t>
   </si>
   <si>
     <t>Traveling Salesman Problem (TSP) Benchmarking</t>
   </si>
   <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -248,6 +182,72 @@
   </si>
   <si>
     <t>MersenneTwister(1234)</t>
+  </si>
+  <si>
+    <t>                    :randomnode!    ,</t>
+  </si>
+  <si>
+    <t>                    :relatednode!   ,</t>
+  </si>
+  <si>
+    <t>                    :worstnode!</t>
+  </si>
+  <si>
+    <t>                    :bestprecise!   ,</t>
+  </si>
+  <si>
+    <t>                    :bestperturb!   ,</t>
+  </si>
+  <si>
+    <t>                    :greedyprecise! ,</t>
+  </si>
+  <si>
+    <t>                    :greedyperturb! ,</t>
+  </si>
+  <si>
+    <t>                    :regret2!       ,</t>
+  </si>
+  <si>
+    <t>                    :regret3!</t>
+  </si>
+  <si>
+    <t>                    :move!      ,</t>
+  </si>
+  <si>
+    <t>                    :opt!       ,</t>
+  </si>
+  <si>
+    <t>    );</t>
+  </si>
+  <si>
+    <t>    x = length(sₒ.N);</t>
+  </si>
+  <si>
+    <t>    n = max(500, ceil(x, digits=-(length(digits(x))-1)));</t>
+  </si>
+  <si>
+    <t>        k̲   =   n ÷ 25                  ,</t>
+  </si>
+  <si>
+    <t>        l̲   =   2n                      ,</t>
+  </si>
+  <si>
+    <t>        l̅   =   5n                      ,</t>
+  </si>
+  <si>
+    <t>        k̅   =   10n                     ,</t>
+  </si>
+  <si>
+    <t>        σ₁  =   15                      ,</t>
+  </si>
+  <si>
+    <t>        σ₂  =   10                      ,</t>
+  </si>
+  <si>
+    <t>        σ₃  =   3                       ,</t>
+  </si>
+  <si>
+    <t>        C̲   =   4                       ,</t>
   </si>
 </sst>
 </file>
@@ -297,13 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -314,6 +307,12 @@
       <sz val="8"/>
       <name val="JuliaMono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,23 +453,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,6 +472,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,492 +774,590 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>66</v>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="G56" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>48</v>
@@ -1259,26 +1367,27 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D57" s="4">
-        <v>33600.561458454999</v>
+        <v>33588.343409117799</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>-2.4176826132027429E-4</v>
+        <v>-6.0530669253833214E-4</v>
       </c>
       <c r="F57" s="7">
-        <f>0.71/1000</f>
-        <v>7.0999999999999991E-4</v>
+        <f>0.66/1000</f>
+        <v>6.6E-4</v>
       </c>
       <c r="G57" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G57*F57</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1">
         <v>101</v>
@@ -1287,26 +1396,27 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>649.07960642191495</v>
+        <v>657.00174920483005</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>3.192306267395062E-2</v>
+        <v>4.4517884268410191E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>5.8/1000</f>
-        <v>5.7999999999999996E-3</v>
+        <f>5.09/1000</f>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="G58" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H58" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G58*F58</f>
+        <v>25.45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2">
         <v>150</v>
@@ -1315,26 +1425,27 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6608.5571057628104</v>
+        <v>6582.6476967753597</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.2340242917097122E-2</v>
+        <v>8.3712770795587588E-3</v>
       </c>
       <c r="F59" s="5">
-        <f>18.46/1000</f>
-        <v>1.8460000000000001E-2</v>
+        <f>15.62/1000</f>
+        <v>1.5619999999999998E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H59" s="8">
-        <v>36.880000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G59*F59</f>
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2">
         <v>198</v>
@@ -1343,24 +1454,25 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15998.5986255771</v>
+        <v>15877.9940930794</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>1.3852891354695807E-2</v>
+        <v>6.2100185728390933E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>29.65/1000</f>
-        <v>2.9649999999999999E-2</v>
+        <f>22.91/1000</f>
+        <v>2.291E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H60" s="8">
-        <v>59.12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G60*F60</f>
+        <v>114.55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
@@ -1371,678 +1483,679 @@
         <v>2634.70097254335</v>
       </c>
       <c r="D61" s="4">
-        <v>2647.63086294714</v>
+        <v>2677.42437941155</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>4.9075362018440316E-3</v>
+        <v>1.6215656848131088E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>55.41/1000</f>
-        <v>5.5409999999999994E-2</v>
+        <f>37.53/1000</f>
+        <v>3.7530000000000001E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H61" s="8">
-        <v>164.60999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G61*F61</f>
+        <v>187.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="9"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="9"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="9"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="9"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="9"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="9"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="9"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="9"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="9"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="9"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="9"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="9"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="9"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="9"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="9"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="9"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="9"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="9"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="9"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="9"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="9"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="9"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="9"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="9"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="9"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="9"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="9"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="9"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="9"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="9"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="9"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="9"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="9"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="9"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="9"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="9"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="9"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="9"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="9"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="9"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="9"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="9"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="9"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="9"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="9"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="9"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="9"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="9"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="9"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="9"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="9"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="9"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="9"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="9"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="9"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="9"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="9"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="9"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="9"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="9"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="9"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="9"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="9"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="9"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="9"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="9"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="9"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="9"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="9"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="9"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="9"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="9"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="9"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="9"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="9"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="9"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="9"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="9"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="9"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="9"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="9"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="9"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="9"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="9"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="9"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="9"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="9"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="9"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="9"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="9"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="9"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EE9BC-BEA6-44FA-A1C3-8E343A90A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64271800-AEAF-476A-B687-72FACD7D15F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>Initialization</t>
   </si>
   <si>
-    <t>:cw_init</t>
-  </si>
-  <si>
     <t>rng</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>        C̲   =   4                       ,</t>
+  </si>
+  <si>
+    <t>:random</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -908,11 +908,11 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -921,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -935,7 +935,7 @@
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -945,7 +945,7 @@
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64271800-AEAF-476A-B687-72FACD7D15F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDB58F-FA1B-4335-ABEF-076937C0AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDB58F-FA1B-4335-ABEF-076937C0AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF8CAF-02A8-4A28-A434-00F4B8B6C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>a280</t>
   </si>
@@ -193,13 +193,7 @@
     <t>                    :bestprecise!   ,</t>
   </si>
   <si>
-    <t>                    :bestperturb!   ,</t>
-  </si>
-  <si>
     <t>                    :greedyprecise! ,</t>
-  </si>
-  <si>
-    <t>                    :greedyperturb! ,</t>
   </si>
   <si>
     <t>                    :regret2!       ,</t>
@@ -772,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -921,7 +915,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -935,7 +929,7 @@
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -945,7 +939,7 @@
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -965,7 +959,7 @@
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -975,7 +969,7 @@
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -985,7 +979,7 @@
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -995,7 +989,7 @@
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1105,7 +1099,7 @@
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1115,7 +1109,7 @@
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -1135,7 +1129,7 @@
     </row>
     <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1143,41 +1137,45 @@
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -1201,7 +1199,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -1213,7 +1211,7 @@
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1225,7 +1223,7 @@
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -1249,7 +1247,7 @@
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -1261,7 +1259,7 @@
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -1273,7 +1271,7 @@
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -1285,7 +1283,7 @@
     </row>
     <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -1296,210 +1294,192 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>20</v>
+      <c r="A53" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4">
+        <f>10628*SQRT(10)</f>
+        <v>33608.686972269541</v>
+      </c>
+      <c r="D55" s="4">
+        <v>33523.708507037001</v>
+      </c>
+      <c r="E55" s="3">
+        <f>D55/C55-1</f>
+        <v>-2.5284672770065075E-3</v>
+      </c>
+      <c r="F55" s="7">
+        <f>0.69/1000</f>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H55" s="8">
+        <f>G55*F55</f>
+        <v>3.4499999999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>7</v>
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1">
+        <v>629</v>
+      </c>
+      <c r="D56" s="6">
+        <v>646.02569470494996</v>
+      </c>
+      <c r="E56" s="3">
+        <f>D56/C56-1</f>
+        <v>2.7067877114387739E-2</v>
+      </c>
+      <c r="F56" s="5">
+        <f>5.12/1000</f>
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H56" s="8">
+        <f>G56*F56</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4">
-        <f>10628*SQRT(10)</f>
-        <v>33608.686972269541</v>
+        <v>6528</v>
       </c>
       <c r="D57" s="4">
-        <v>33588.343409117799</v>
+        <v>6564.6906737836998</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>-6.0530669253833214E-4</v>
-      </c>
-      <c r="F57" s="7">
-        <f>0.66/1000</f>
-        <v>6.6E-4</v>
+        <v>5.620507626179494E-3</v>
+      </c>
+      <c r="F57" s="5">
+        <f>16.02/1000</f>
+        <v>1.602E-2</v>
       </c>
       <c r="G57" s="1">
         <v>5000</v>
       </c>
       <c r="H57" s="8">
         <f>G57*F57</f>
-        <v>3.3</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1">
-        <v>101</v>
-      </c>
-      <c r="C58" s="1">
-        <v>629</v>
-      </c>
-      <c r="D58" s="6">
-        <v>657.00174920483005</v>
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2">
+        <v>198</v>
+      </c>
+      <c r="C58" s="4">
+        <v>15780</v>
+      </c>
+      <c r="D58" s="4">
+        <v>15853.429630095899</v>
       </c>
       <c r="E58" s="3">
-        <f>D58/C58-1</f>
-        <v>4.4517884268410191E-2</v>
+        <f t="shared" ref="E58:E59" si="0">D58/C58-1</f>
+        <v>4.6533352405513373E-3</v>
       </c>
       <c r="F58" s="5">
-        <f>5.09/1000</f>
-        <v>5.0899999999999999E-3</v>
+        <f>23.71/1000</f>
+        <v>2.3710000000000002E-2</v>
       </c>
       <c r="G58" s="1">
         <v>5000</v>
       </c>
       <c r="H58" s="8">
         <f>G58*F58</f>
-        <v>25.45</v>
+        <v>118.55000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B59" s="2">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="C59" s="4">
-        <v>6528</v>
+        <v>2634.70097254335</v>
       </c>
       <c r="D59" s="4">
-        <v>6582.6476967753597</v>
+        <v>2671.5118068470101</v>
       </c>
       <c r="E59" s="3">
-        <f>D59/C59-1</f>
-        <v>8.3712770795587588E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.3971541623611916E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>15.62/1000</f>
-        <v>1.5619999999999998E-2</v>
+        <f>40.59/1000</f>
+        <v>4.0590000000000001E-2</v>
       </c>
       <c r="G59" s="1">
         <v>5000</v>
       </c>
       <c r="H59" s="8">
         <f>G59*F59</f>
-        <v>78.099999999999994</v>
+        <v>202.95000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2">
-        <v>198</v>
-      </c>
-      <c r="C60" s="4">
-        <v>15780</v>
-      </c>
-      <c r="D60" s="4">
-        <v>15877.9940930794</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>6.2100185728390933E-3</v>
-      </c>
-      <c r="F60" s="5">
-        <f>22.91/1000</f>
-        <v>2.291E-2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H60" s="8">
-        <f>G60*F60</f>
-        <v>114.55</v>
-      </c>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2">
-        <v>280</v>
-      </c>
-      <c r="C61" s="4">
-        <v>2634.70097254335</v>
-      </c>
-      <c r="D61" s="4">
-        <v>2677.42437941155</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6215656848131088E-2</v>
-      </c>
-      <c r="F61" s="5">
-        <f>37.53/1000</f>
-        <v>3.7530000000000001E-2</v>
-      </c>
-      <c r="G61" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H61" s="8">
-        <f>G61*F61</f>
-        <v>187.65</v>
-      </c>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
@@ -2151,12 +2131,6 @@
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="9"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="9"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF8CAF-02A8-4A28-A434-00F4B8B6C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016039C3-B293-41FE-825B-8D6838C7C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>a280</t>
   </si>
@@ -88,9 +88,6 @@
     <t>        τ   =   0.5                     ,</t>
   </si>
   <si>
-    <t>        𝜃   =   0.99975                 ,</t>
-  </si>
-  <si>
     <t>        C̅   =   60                      ,</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>rng</t>
   </si>
   <si>
-    <t>MersenneTwister(1234)</t>
-  </si>
-  <si>
     <t>                    :randomnode!    ,</t>
   </si>
   <si>
@@ -242,6 +236,18 @@
   </si>
   <si>
     <t>:random</t>
+  </si>
+  <si>
+    <t>        𝜃   =   0.9975                 ,</t>
+  </si>
+  <si>
+    <t>                    :greedyperturb! ,</t>
+  </si>
+  <si>
+    <t>                    :bestperturb!   ,</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
   </si>
 </sst>
 </file>
@@ -457,9 +463,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -483,6 +486,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -787,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -796,25 +802,25 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>28</v>
+      <c r="A3" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -822,11 +828,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -834,35 +840,35 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>39</v>
+      <c r="A8" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -873,8 +879,8 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>44</v>
+      <c r="A12" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -882,40 +888,40 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -923,563 +929,577 @@
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="A43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="A46" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="A49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="A50" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="A52" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="18" t="s">
+      <c r="B56" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D56" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E56" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F56" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="G56" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B57" s="2">
         <v>48</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C57" s="4">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D55" s="4">
-        <v>33523.708507037001</v>
-      </c>
-      <c r="E55" s="3">
-        <f>D55/C55-1</f>
-        <v>-2.5284672770065075E-3</v>
-      </c>
-      <c r="F55" s="7">
-        <f>0.69/1000</f>
-        <v>6.8999999999999997E-4</v>
-      </c>
-      <c r="G55" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H55" s="8">
-        <f>G55*F55</f>
-        <v>3.4499999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="1">
-        <v>101</v>
-      </c>
-      <c r="C56" s="1">
-        <v>629</v>
-      </c>
-      <c r="D56" s="6">
-        <v>646.02569470494996</v>
-      </c>
-      <c r="E56" s="3">
-        <f>D56/C56-1</f>
-        <v>2.7067877114387739E-2</v>
-      </c>
-      <c r="F56" s="5">
-        <f>5.12/1000</f>
-        <v>5.1200000000000004E-3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H56" s="8">
-        <f>G56*F56</f>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="2">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4">
-        <v>6528</v>
-      </c>
       <c r="D57" s="4">
-        <v>6564.6906737836998</v>
+        <v>33523.708507008603</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>5.620507626179494E-3</v>
-      </c>
-      <c r="F57" s="5">
-        <f>16.02/1000</f>
-        <v>1.602E-2</v>
+        <v>-2.5284672778514983E-3</v>
+      </c>
+      <c r="F57" s="7">
+        <f>0.72/1000</f>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="G57" s="1">
         <v>5000</v>
       </c>
       <c r="H57" s="8">
         <f>G57*F57</f>
-        <v>80.099999999999994</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="2">
-        <v>198</v>
-      </c>
-      <c r="C58" s="4">
-        <v>15780</v>
-      </c>
-      <c r="D58" s="4">
-        <v>15853.429630095899</v>
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>101</v>
+      </c>
+      <c r="C58" s="1">
+        <v>629</v>
+      </c>
+      <c r="D58" s="6">
+        <v>644.31768473464194</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" ref="E58:E59" si="0">D58/C58-1</f>
-        <v>4.6533352405513373E-3</v>
+        <f>D58/C58-1</f>
+        <v>2.4352439959685057E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>23.71/1000</f>
-        <v>2.3710000000000002E-2</v>
+        <f>5.15/1000</f>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="G58" s="1">
         <v>5000</v>
       </c>
       <c r="H58" s="8">
         <f>G58*F58</f>
-        <v>118.55000000000001</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4">
-        <v>2634.70097254335</v>
+        <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>2671.5118068470101</v>
+        <v>6614.0683085995797</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3971541623611916E-2</v>
+        <f>D59/C59-1</f>
+        <v>1.318448354772972E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>40.59/1000</f>
-        <v>4.0590000000000001E-2</v>
+        <f>15.5/1000</f>
+        <v>1.55E-2</v>
       </c>
       <c r="G59" s="1">
         <v>5000</v>
       </c>
       <c r="H59" s="8">
         <f>G59*F59</f>
-        <v>202.95000000000002</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>198</v>
+      </c>
+      <c r="C60" s="4">
+        <v>15780</v>
+      </c>
+      <c r="D60" s="4">
+        <v>15794.1976190325</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
+        <v>8.9972237214830386E-4</v>
+      </c>
+      <c r="F60" s="5">
+        <f>23.36/1000</f>
+        <v>2.3359999999999999E-2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H60" s="8">
+        <f>G60*F60</f>
+        <v>116.8</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="9"/>
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>280</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2634.70097254335</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2611.0116394766101</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.9912795848979821E-3</v>
+      </c>
+      <c r="F61" s="5">
+        <f>38.51/1000</f>
+        <v>3.8509999999999996E-2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="8">
+        <f>G61*F61</f>
+        <v>192.54999999999998</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
@@ -2131,6 +2151,12 @@
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="9"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="9"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\TSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016039C3-B293-41FE-825B-8D6838C7C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377914E-077B-40B5-92F3-FC7DD8611759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1374,15 +1374,15 @@
         <v>-2.5284672778514983E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.72/1000</f>
-        <v>7.1999999999999994E-4</v>
+        <f>0.76/1000</f>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="G57" s="1">
         <v>5000</v>
       </c>
       <c r="H57" s="8">
         <f>G57*F57</f>
-        <v>3.5999999999999996</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1396,22 +1396,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>644.31768473464194</v>
+        <v>642.03133543619799</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>2.4352439959685057E-2</v>
+        <v>2.0717544413669353E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>5.15/1000</f>
-        <v>5.1500000000000001E-3</v>
+        <f>5.74/1000</f>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="G58" s="1">
         <v>5000</v>
       </c>
       <c r="H58" s="8">
         <f>G58*F58</f>
-        <v>25.75</v>
+        <v>28.700000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1425,22 +1425,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6614.0683085995797</v>
+        <v>6565.5355209212503</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.318448354772972E-2</v>
+        <v>5.7499266117111425E-3</v>
       </c>
       <c r="F59" s="5">
-        <f>15.5/1000</f>
-        <v>1.55E-2</v>
+        <f>17.86/1000</f>
+        <v>1.7860000000000001E-2</v>
       </c>
       <c r="G59" s="1">
         <v>5000</v>
       </c>
       <c r="H59" s="8">
         <f>G59*F59</f>
-        <v>77.5</v>
+        <v>89.300000000000011</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1454,22 +1454,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15794.1976190325</v>
+        <v>15796.617697801599</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>8.9972237214830386E-4</v>
+        <v>1.053086045728735E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>23.36/1000</f>
-        <v>2.3359999999999999E-2</v>
+        <f>25.76/1000</f>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="G60" s="1">
         <v>5000</v>
       </c>
       <c r="H60" s="8">
         <f>G60*F60</f>
-        <v>116.8</v>
+        <v>128.80000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1483,22 +1483,22 @@
         <v>2634.70097254335</v>
       </c>
       <c r="D61" s="4">
-        <v>2611.0116394766101</v>
+        <v>2618.2640142024002</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>-8.9912795848979821E-3</v>
+        <v>-6.2386428335671207E-3</v>
       </c>
       <c r="F61" s="5">
-        <f>38.51/1000</f>
-        <v>3.8509999999999996E-2</v>
+        <f>42.12/1000</f>
+        <v>4.2119999999999998E-2</v>
       </c>
       <c r="G61" s="1">
         <v>5000</v>
       </c>
       <c r="H61" s="8">
         <f>G61*F61</f>
-        <v>192.54999999999998</v>
+        <v>210.6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377914E-077B-40B5-92F3-FC7DD8611759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE71112-E942-4BBA-A0A2-06834AB7993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>                    :bestperturb!   ,</t>
   </si>
   <si>
-    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
+    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403); MersenneTwister(2104); MersenneTwister(2111)</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -1367,22 +1367,22 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D57" s="4">
-        <v>33523.708507008603</v>
+        <v>33523.708506968098</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>-2.5284672778514983E-3</v>
+        <v>-2.5284672790567564E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.76/1000</f>
-        <v>7.6000000000000004E-4</v>
+        <f>0.8/1000</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G57" s="1">
         <v>5000</v>
       </c>
       <c r="H57" s="8">
         <f>G57*F57</f>
-        <v>3.8000000000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1403,15 +1403,15 @@
         <v>2.0717544413669353E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>5.74/1000</f>
-        <v>5.7400000000000003E-3</v>
+        <f>5.61/1000</f>
+        <v>5.6100000000000004E-3</v>
       </c>
       <c r="G58" s="1">
         <v>5000</v>
       </c>
       <c r="H58" s="8">
         <f>G58*F58</f>
-        <v>28.700000000000003</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1432,15 +1432,15 @@
         <v>5.7499266117111425E-3</v>
       </c>
       <c r="F59" s="5">
-        <f>17.86/1000</f>
-        <v>1.7860000000000001E-2</v>
+        <f>18.06/1000</f>
+        <v>1.806E-2</v>
       </c>
       <c r="G59" s="1">
         <v>5000</v>
       </c>
       <c r="H59" s="8">
         <f>G59*F59</f>
-        <v>89.300000000000011</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1454,11 +1454,11 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15796.617697801599</v>
+        <v>15778.4043668454</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>1.053086045728735E-3</v>
+        <v>-1.0111743692020614E-4</v>
       </c>
       <c r="F60" s="5">
         <f>25.76/1000</f>
@@ -1490,15 +1490,15 @@
         <v>-6.2386428335671207E-3</v>
       </c>
       <c r="F61" s="5">
-        <f>42.12/1000</f>
-        <v>4.2119999999999998E-2</v>
+        <f>40.96/1000</f>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="G61" s="1">
         <v>5000</v>
       </c>
       <c r="H61" s="8">
         <f>G61*F61</f>
-        <v>210.6</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE71112-E942-4BBA-A0A2-06834AB7993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D5903-286B-430C-9662-A5D83AFFCB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Processor</t>
   </si>
   <si>
-    <t>11th Gen Intel(R) Core(TM) i7-11800H @ 2.30GHz   2.30 GHz</t>
-  </si>
-  <si>
     <t>Installed RAM</t>
   </si>
   <si>
@@ -136,21 +133,12 @@
     <t>64-bit operating system, x64-based processor</t>
   </si>
   <si>
-    <t>64.0 GB</t>
-  </si>
-  <si>
     <t>Edition</t>
   </si>
   <si>
-    <t>Windows 11 Home</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>21H2</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -238,9 +226,6 @@
     <t>:random</t>
   </si>
   <si>
-    <t>        𝜃   =   0.9975                 ,</t>
-  </si>
-  <si>
     <t>                    :greedyperturb! ,</t>
   </si>
   <si>
@@ -248,6 +233,21 @@
   </si>
   <si>
     <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403); MersenneTwister(2104); MersenneTwister(2111)</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
+  </si>
+  <si>
+    <t>16.0 GB</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise</t>
+  </si>
+  <si>
+    <t>22H2</t>
+  </si>
+  <si>
+    <t>        𝜃   =   0.9975                  ,</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +313,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="JuliaMono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,9 +461,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -491,6 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +778,7 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -792,25 +795,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -818,9 +821,9 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -828,11 +831,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -840,35 +843,35 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>38</v>
+      <c r="A8" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -879,8 +882,8 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>43</v>
+      <c r="A12" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -888,40 +891,40 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="13" t="s">
-        <v>70</v>
+      <c r="C15" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>66</v>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -934,424 +937,424 @@
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="A44" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="A45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="A46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="A49" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="A50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="A55" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1374,15 +1377,15 @@
         <v>-2.5284672790567564E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.8/1000</f>
-        <v>8.0000000000000004E-4</v>
+        <f>0.526/1000</f>
+        <v>5.2599999999999999E-4</v>
       </c>
       <c r="G57" s="1">
         <v>5000</v>
       </c>
       <c r="H57" s="8">
         <f>G57*F57</f>
-        <v>4</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1396,22 +1399,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>642.03133543619799</v>
+        <v>642.03133542603405</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>2.0717544413669353E-2</v>
+        <v>2.0717544397510501E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>5.61/1000</f>
-        <v>5.6100000000000004E-3</v>
+        <f>3.49/1000</f>
+        <v>3.49E-3</v>
       </c>
       <c r="G58" s="1">
         <v>5000</v>
       </c>
       <c r="H58" s="8">
         <f>G58*F58</f>
-        <v>28.05</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1425,22 +1428,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6565.5355209212503</v>
+        <v>6551.6662755728103</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>5.7499266117111425E-3</v>
+        <v>3.6253485865211932E-3</v>
       </c>
       <c r="F59" s="5">
-        <f>18.06/1000</f>
-        <v>1.806E-2</v>
+        <f>9.432/1000</f>
+        <v>9.4320000000000011E-3</v>
       </c>
       <c r="G59" s="1">
         <v>5000</v>
       </c>
       <c r="H59" s="8">
         <f>G59*F59</f>
-        <v>90.3</v>
+        <v>47.160000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1454,22 +1457,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15778.4043668454</v>
+        <v>15826.378991932799</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>-1.0111743692020614E-4</v>
+        <v>2.9390996155131965E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>25.76/1000</f>
-        <v>2.5760000000000002E-2</v>
+        <f>15.184/1000</f>
+        <v>1.5184E-2</v>
       </c>
       <c r="G60" s="1">
         <v>5000</v>
       </c>
       <c r="H60" s="8">
         <f>G60*F60</f>
-        <v>128.80000000000001</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1483,22 +1486,22 @@
         <v>2634.70097254335</v>
       </c>
       <c r="D61" s="4">
-        <v>2618.2640142024002</v>
+        <v>2591.2620700521702</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>-6.2386428335671207E-3</v>
+        <v>-1.6487223007037088E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>40.96/1000</f>
-        <v>4.0960000000000003E-2</v>
+        <f>24.61/1000</f>
+        <v>2.461E-2</v>
       </c>
       <c r="G61" s="1">
         <v>5000</v>
       </c>
       <c r="H61" s="8">
         <f>G61*F61</f>
-        <v>204.8</v>
+        <v>123.05</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D5903-286B-430C-9662-A5D83AFFCB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5463D35-3B53-4542-ADF1-FA662E35E3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,32 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>a280</t>
   </si>
   <si>
-    <t>Best known</t>
-  </si>
-  <si>
-    <t>Best found</t>
-  </si>
-  <si>
     <t>Instance</t>
   </si>
   <si>
     <t>Gap</t>
   </si>
   <si>
-    <t>Run time (s/it)</t>
-  </si>
-  <si>
     <t>att48</t>
   </si>
   <si>
-    <t>Run time (s)</t>
-  </si>
-  <si>
     <t>eil101</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>        ρ   =   0.1                     ,</t>
   </si>
   <si>
-    <t>Iterations</t>
-  </si>
-  <si>
     <t>ALNS parameters</t>
   </si>
   <si>
@@ -248,15 +233,43 @@
   </si>
   <si>
     <t>        𝜃   =   0.9975                  ,</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>TSP Solution</t>
+  </si>
+  <si>
+    <t>Avg. Run Time
+(ms/iteration)</t>
+  </si>
+  <si>
+    <t>Avg. Run 
+Time (s)</t>
+  </si>
+  <si>
+    <t>Num 
+Iterations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -328,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -436,16 +449,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -490,10 +552,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,55 +865,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>27</v>
+      <c r="A3" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -831,1337 +919,1423 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>39</v>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+      <c r="C16" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="29" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
         <v>48</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2">
-        <v>48</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="C59" s="3">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D57" s="4">
-        <v>33523.708506968098</v>
-      </c>
-      <c r="E57" s="3">
-        <f>D57/C57-1</f>
-        <v>-2.5284672790567564E-3</v>
-      </c>
-      <c r="F57" s="7">
-        <f>0.526/1000</f>
-        <v>5.2599999999999999E-4</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="D59" s="3">
+        <v>33523.708507261799</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33601.6261686629</v>
+      </c>
+      <c r="F59" s="3">
+        <v>33784.027010219201</v>
+      </c>
+      <c r="G59" s="28">
+        <f>D59/$C59-1</f>
+        <v>-2.5284672703178579E-3</v>
+      </c>
+      <c r="H59" s="28">
+        <f>E59/$C59-1</f>
+        <v>-2.1008864798754967E-4</v>
+      </c>
+      <c r="I59" s="28">
+        <f>F59/$C59-1</f>
+        <v>5.2171046757742978E-3</v>
+      </c>
+      <c r="J59" s="6">
+        <f>0.442/1000</f>
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="K59" s="1">
         <v>5000</v>
       </c>
-      <c r="H57" s="8">
-        <f>G57*F57</f>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="L59" s="7">
+        <f>K59*J59</f>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
         <v>101</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C60" s="1">
         <v>629</v>
       </c>
-      <c r="D58" s="6">
-        <v>642.03133542603405</v>
-      </c>
-      <c r="E58" s="3">
-        <f>D58/C58-1</f>
-        <v>2.0717544397510501E-2</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="D60" s="5">
+        <v>644.26559495336005</v>
+      </c>
+      <c r="E60" s="5">
+        <v>647.58680051040699</v>
+      </c>
+      <c r="F60" s="5">
+        <v>651.19255106956405</v>
+      </c>
+      <c r="G60" s="28">
+        <f>D60/$C60-1</f>
+        <v>2.4269626316947512E-2</v>
+      </c>
+      <c r="H60" s="28">
+        <f t="shared" ref="H60:I60" si="0">E60/$C60-1</f>
+        <v>2.9549762337689911E-2</v>
+      </c>
+      <c r="I60" s="28">
+        <f t="shared" si="0"/>
+        <v>3.5282275150340325E-2</v>
+      </c>
+      <c r="J60" s="4">
         <f>3.49/1000</f>
         <v>3.49E-3</v>
       </c>
-      <c r="G58" s="1">
+      <c r="K60" s="1">
         <v>5000</v>
       </c>
-      <c r="H58" s="8">
-        <f>G58*F58</f>
+      <c r="L60" s="7">
+        <f>K60*J60</f>
         <v>17.45</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
         <v>150</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C61" s="3">
         <v>6528</v>
       </c>
-      <c r="D59" s="4">
-        <v>6551.6662755728103</v>
-      </c>
-      <c r="E59" s="3">
-        <f>D59/C59-1</f>
-        <v>3.6253485865211932E-3</v>
-      </c>
-      <c r="F59" s="5">
-        <f>9.432/1000</f>
-        <v>9.4320000000000011E-3</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="D61" s="3">
+        <v>6580.5075392694498</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6602.5765492410801</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6639.27298727171</v>
+      </c>
+      <c r="G61" s="28">
+        <f>D61/$C61-1</f>
+        <v>8.0434343243642736E-3</v>
+      </c>
+      <c r="H61" s="28">
+        <f t="shared" ref="H61:I61" si="1">E61/$C61-1</f>
+        <v>1.1424103744037906E-2</v>
+      </c>
+      <c r="I61" s="28">
+        <f t="shared" si="1"/>
+        <v>1.7045494373730152E-2</v>
+      </c>
+      <c r="J61" s="4">
+        <f>7.792/1000</f>
+        <v>7.7919999999999994E-3</v>
+      </c>
+      <c r="K61" s="1">
         <v>5000</v>
       </c>
-      <c r="H59" s="8">
-        <f>G59*F59</f>
-        <v>47.160000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="L61" s="7">
+        <f>K61*J61</f>
+        <v>38.959999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2">
         <v>198</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C62" s="3">
         <v>15780</v>
       </c>
-      <c r="D60" s="4">
-        <v>15826.378991932799</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" ref="E60:E61" si="0">D60/C60-1</f>
-        <v>2.9390996155131965E-3</v>
-      </c>
-      <c r="F60" s="5">
-        <f>15.184/1000</f>
-        <v>1.5184E-2</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="D62" s="3">
+        <v>15792.446311211501</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15830.1484232069</v>
+      </c>
+      <c r="F62" s="3">
+        <v>15868.586934395</v>
+      </c>
+      <c r="G62" s="28">
+        <f>D62/$C62-1</f>
+        <v>7.8873962050063362E-4</v>
+      </c>
+      <c r="H62" s="28">
+        <f>E62/$C62-1</f>
+        <v>3.1779735872559112E-3</v>
+      </c>
+      <c r="I62" s="28">
+        <f>F62/$C62-1</f>
+        <v>5.613874169518418E-3</v>
+      </c>
+      <c r="J62" s="4">
+        <f>12.038/1000</f>
+        <v>1.2038E-2</v>
+      </c>
+      <c r="K62" s="1">
         <v>5000</v>
       </c>
-      <c r="H60" s="8">
-        <f>G60*F60</f>
-        <v>75.92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="L62" s="7">
+        <f>K62*J62</f>
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B63" s="2">
         <v>280</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C63" s="3">
         <v>2634.70097254335</v>
       </c>
-      <c r="D61" s="4">
-        <v>2591.2620700521702</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.6487223007037088E-2</v>
-      </c>
-      <c r="F61" s="5">
-        <f>24.61/1000</f>
-        <v>2.461E-2</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="D63" s="3">
+        <v>2596.45252639924</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2617.0127543233898</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2637.4326821883201</v>
+      </c>
+      <c r="G63" s="28">
+        <f>D63/$C63-1</f>
+        <v>-1.4517186786167868E-2</v>
+      </c>
+      <c r="H63" s="28">
+        <f>E63/$C63-1</f>
+        <v>-6.7135581624980789E-3</v>
+      </c>
+      <c r="I63" s="28">
+        <f>F63/$C63-1</f>
+        <v>1.0368196138528241E-3</v>
+      </c>
+      <c r="J63" s="4">
+        <f>19.962/1000</f>
+        <v>1.9962000000000001E-2</v>
+      </c>
+      <c r="K63" s="1">
         <v>5000</v>
       </c>
-      <c r="H61" s="8">
-        <f>G61*F61</f>
-        <v>123.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="9"/>
+      <c r="L63" s="7">
+        <f>K63*J63</f>
+        <v>99.81</v>
+      </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="9"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="9"/>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="9"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="9"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="9"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="9"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="9"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="9"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="9"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="9"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="9"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="9"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="9"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="9"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="9"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="9"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="9"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="9"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="9"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="9"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="9"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="9"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="9"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="9"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="9"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="9"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="9"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="9"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="9"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="9"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="9"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="9"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="9"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="9"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="9"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="9"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="9"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="9"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="9"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="9"/>
+      <c r="B168" s="8"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="9"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="9"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="9"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="9"/>
+      <c r="B172" s="8"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="9"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="9"/>
+      <c r="B174" s="8"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="9"/>
+      <c r="B175" s="8"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="9"/>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="9"/>
+      <c r="B177" s="8"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="9"/>
+      <c r="B178" s="8"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="9"/>
+      <c r="B179" s="8"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="9"/>
+      <c r="B180" s="8"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="9"/>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="9"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="9"/>
+      <c r="B183" s="8"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="9"/>
+      <c r="B184" s="8"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="9"/>
+      <c r="B185" s="8"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="9"/>
+      <c r="B186" s="8"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="9"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="9"/>
+      <c r="B188" s="8"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="9"/>
+      <c r="B189" s="8"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="9"/>
+      <c r="B190" s="8"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="9"/>
+      <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="9"/>
+      <c r="B192" s="8"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="9"/>
+      <c r="B193" s="8"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="9"/>
+      <c r="B194" s="8"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="9"/>
+      <c r="B195" s="8"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="9"/>
+      <c r="B196" s="8"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="9"/>
+      <c r="B197" s="8"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="9"/>
+      <c r="B198" s="8"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="9"/>
+      <c r="B199" s="8"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="9"/>
+      <c r="B200" s="8"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="9"/>
+      <c r="B201" s="8"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="9"/>
+      <c r="B202" s="8"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="9"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="9"/>
+      <c r="B204" s="8"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="9"/>
+      <c r="B205" s="8"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="9"/>
+      <c r="B206" s="8"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="9"/>
+      <c r="B207" s="8"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="9"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="9"/>
+      <c r="B209" s="8"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="9"/>
+      <c r="B210" s="8"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="9"/>
+      <c r="B211" s="8"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="9"/>
+      <c r="B212" s="8"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="9"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="9"/>
+      <c r="B214" s="8"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="9"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="9"/>
+      <c r="B216" s="8"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="9"/>
+      <c r="B217" s="8"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="9"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="9"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="9"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="9"/>
+      <c r="B221" s="8"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" s="9"/>
+      <c r="B222" s="8"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="9"/>
+      <c r="B223" s="8"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="9"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="9"/>
+      <c r="B227" s="8"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="9"/>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="9"/>
+      <c r="B229" s="8"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="9"/>
+      <c r="B230" s="8"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="9"/>
+      <c r="B231" s="8"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="9"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="9"/>
+      <c r="B233" s="8"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="9"/>
+      <c r="B234" s="8"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="9"/>
+      <c r="B235" s="8"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="9"/>
+      <c r="B236" s="8"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="9"/>
+      <c r="B237" s="8"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="9"/>
+      <c r="B238" s="8"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="9"/>
+      <c r="B239" s="8"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="9"/>
+      <c r="B240" s="8"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="9"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="9"/>
+      <c r="B242" s="8"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="9"/>
+      <c r="B243" s="8"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="9"/>
+      <c r="B244" s="8"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="9"/>
+      <c r="B245" s="8"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="9"/>
+      <c r="B246" s="8"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="9"/>
+      <c r="B247" s="8"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="9"/>
+      <c r="B248" s="8"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="9"/>
+      <c r="B249" s="8"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="9"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="9"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="9"/>
+      <c r="B252" s="8"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="9"/>
+      <c r="B253" s="8"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="9"/>
+      <c r="B254" s="8"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="9"/>
+      <c r="B255" s="8"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="9"/>
+      <c r="B256" s="8"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="9"/>
+      <c r="B257" s="8"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="9"/>
+      <c r="B258" s="8"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="9"/>
+      <c r="B259" s="8"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" s="9"/>
+      <c r="B260" s="8"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" s="9"/>
+      <c r="B261" s="8"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="9"/>
+      <c r="B262" s="8"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" s="9"/>
+      <c r="B263" s="8"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="9"/>
+      <c r="B264" s="8"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" s="9"/>
+      <c r="B265" s="8"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="9"/>
+      <c r="B266" s="8"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" s="9"/>
+      <c r="B267" s="8"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="9"/>
+      <c r="B268" s="8"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" s="9"/>
+      <c r="B269" s="8"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="9"/>
+      <c r="B270" s="8"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="9"/>
+      <c r="B271" s="8"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" s="9"/>
+      <c r="B272" s="8"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="9"/>
+      <c r="B273" s="8"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="9"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="9"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="9"/>
+      <c r="B276" s="8"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="9"/>
+      <c r="B277" s="8"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="9"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="9"/>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="9"/>
+      <c r="B280" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="J57:J58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5463D35-3B53-4542-ADF1-FA662E35E3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED110FC4-7E06-4CBD-950C-8E96EF1847F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>a280</t>
   </si>
@@ -157,24 +157,9 @@
     <t>                    :worstnode!</t>
   </si>
   <si>
-    <t>                    :bestprecise!   ,</t>
-  </si>
-  <si>
-    <t>                    :greedyprecise! ,</t>
-  </si>
-  <si>
-    <t>                    :regret2!       ,</t>
-  </si>
-  <si>
     <t>                    :regret3!</t>
   </si>
   <si>
-    <t>                    :move!      ,</t>
-  </si>
-  <si>
-    <t>                    :opt!       ,</t>
-  </si>
-  <si>
     <t>    );</t>
   </si>
   <si>
@@ -208,18 +193,6 @@
     <t>        C̲   =   4                       ,</t>
   </si>
   <si>
-    <t>:random</t>
-  </si>
-  <si>
-    <t>                    :greedyperturb! ,</t>
-  </si>
-  <si>
-    <t>                    :bestperturb!   ,</t>
-  </si>
-  <si>
-    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403); MersenneTwister(2104); MersenneTwister(2111)</t>
-  </si>
-  <si>
     <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
   </si>
   <si>
@@ -239,9 +212,6 @@
   </si>
   <si>
     <t>Best</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>Worst</t>
@@ -260,6 +230,33 @@
   <si>
     <t>Num 
 Iterations</t>
+  </si>
+  <si>
+    <t>                    :best!          ,</t>
+  </si>
+  <si>
+    <t>                    :precise!       ,</t>
+  </si>
+  <si>
+    <t>                    :perturb!       ,</t>
+  </si>
+  <si>
+    <t>                    :regret2!       ,</t>
+  </si>
+  <si>
+    <t>                    :move!          ,</t>
+  </si>
+  <si>
+    <t>                    :opt!           ,</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>:random, :savings</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1104); MersenneTwister(2104); MersenneTwister(2806); MersenneTwister(1010); MersenneTwister(2111)</t>
   </si>
 </sst>
 </file>
@@ -328,7 +325,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="JuliaMono"/>
       <family val="3"/>
     </font>
@@ -341,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -476,17 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -504,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -552,12 +538,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,23 +557,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L280"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -911,7 +896,7 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -923,7 +908,7 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -949,7 +934,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -959,7 +944,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -978,41 +963,42 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="27" t="s">
-        <v>60</v>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>57</v>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1026,7 +1012,7 @@
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1036,7 +1022,7 @@
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1056,7 +1042,7 @@
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1066,7 +1052,7 @@
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1076,7 +1062,7 @@
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1086,7 +1072,7 @@
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1156,7 +1142,7 @@
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1166,7 +1152,7 @@
     </row>
     <row r="33" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1176,7 +1162,7 @@
     </row>
     <row r="34" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1186,7 +1172,7 @@
     </row>
     <row r="35" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1196,7 +1182,7 @@
     </row>
     <row r="36" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1206,7 +1192,7 @@
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -1216,7 +1202,7 @@
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -1226,7 +1212,7 @@
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -1236,7 +1222,7 @@
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -1244,31 +1230,33 @@
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -1280,7 +1268,7 @@
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1292,7 +1280,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -1304,7 +1292,7 @@
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -1316,7 +1304,7 @@
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -1328,7 +1316,7 @@
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -1338,9 +1326,9 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -1350,9 +1338,9 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -1362,9 +1350,9 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -1374,9 +1362,9 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -1386,9 +1374,9 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -1398,29 +1386,22 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>19</v>
+    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:12" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
         <v>1</v>
       </c>
@@ -1428,55 +1409,47 @@
         <v>18</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L57" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G57" s="34"/>
+      <c r="H57" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1488,39 +1461,32 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D59" s="3">
-        <v>33523.708507261799</v>
+        <v>33523.708507395801</v>
       </c>
       <c r="E59" s="3">
-        <v>33601.6261686629</v>
-      </c>
-      <c r="F59" s="3">
         <v>33784.027010219201</v>
       </c>
-      <c r="G59" s="28">
+      <c r="F59" s="27">
         <f>D59/$C59-1</f>
-        <v>-2.5284672703178579E-3</v>
-      </c>
-      <c r="H59" s="28">
+        <v>-2.5284672663307139E-3</v>
+      </c>
+      <c r="G59" s="27">
         <f>E59/$C59-1</f>
-        <v>-2.1008864798754967E-4</v>
-      </c>
-      <c r="I59" s="28">
-        <f>F59/$C59-1</f>
         <v>5.2171046757742978E-3</v>
       </c>
-      <c r="J59" s="6">
-        <f>0.442/1000</f>
-        <v>4.4200000000000001E-4</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="H59" s="6">
+        <f>0.462/1000</f>
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="I59" s="1">
         <v>5000</v>
       </c>
-      <c r="L59" s="7">
-        <f>K59*J59</f>
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J59" s="7">
+        <f>I59*H59</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -1531,39 +1497,32 @@
         <v>629</v>
       </c>
       <c r="D60" s="5">
-        <v>644.26559495336005</v>
+        <v>644.26559495367803</v>
       </c>
       <c r="E60" s="5">
-        <v>647.58680051040699</v>
-      </c>
-      <c r="F60" s="5">
-        <v>651.19255106956405</v>
-      </c>
-      <c r="G60" s="28">
+        <v>651.19255106944195</v>
+      </c>
+      <c r="F60" s="27">
         <f>D60/$C60-1</f>
-        <v>2.4269626316947512E-2</v>
-      </c>
-      <c r="H60" s="28">
-        <f t="shared" ref="H60:I60" si="0">E60/$C60-1</f>
-        <v>2.9549762337689911E-2</v>
-      </c>
-      <c r="I60" s="28">
-        <f t="shared" si="0"/>
-        <v>3.5282275150340325E-2</v>
-      </c>
-      <c r="J60" s="4">
-        <f>3.49/1000</f>
-        <v>3.49E-3</v>
-      </c>
-      <c r="K60" s="1">
+        <v>2.4269626317453108E-2</v>
+      </c>
+      <c r="G60" s="27">
+        <f>E60/$C60-1</f>
+        <v>3.5282275150146258E-2</v>
+      </c>
+      <c r="H60" s="4">
+        <f>2.926/1000</f>
+        <v>2.9260000000000002E-3</v>
+      </c>
+      <c r="I60" s="1">
         <v>5000</v>
       </c>
-      <c r="L60" s="7">
-        <f>K60*J60</f>
-        <v>17.45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J60" s="7">
+        <f>I60*H60</f>
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -1577,36 +1536,29 @@
         <v>6580.5075392694498</v>
       </c>
       <c r="E61" s="3">
-        <v>6602.5765492410801</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6639.27298727171</v>
-      </c>
-      <c r="G61" s="28">
+        <v>6618.2234525017102</v>
+      </c>
+      <c r="F61" s="27">
         <f>D61/$C61-1</f>
         <v>8.0434343243642736E-3</v>
       </c>
-      <c r="H61" s="28">
-        <f t="shared" ref="H61:I61" si="1">E61/$C61-1</f>
-        <v>1.1424103744037906E-2</v>
-      </c>
-      <c r="I61" s="28">
-        <f t="shared" si="1"/>
-        <v>1.7045494373730152E-2</v>
-      </c>
-      <c r="J61" s="4">
-        <f>7.792/1000</f>
-        <v>7.7919999999999994E-3</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="G61" s="27">
+        <f>E61/$C61-1</f>
+        <v>1.3820994562149247E-2</v>
+      </c>
+      <c r="H61" s="4">
+        <f>7.598/1000</f>
+        <v>7.5979999999999997E-3</v>
+      </c>
+      <c r="I61" s="1">
         <v>5000</v>
       </c>
-      <c r="L61" s="7">
-        <f>K61*J61</f>
-        <v>38.959999999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J61" s="7">
+        <f>I61*H61</f>
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -1617,39 +1569,32 @@
         <v>15780</v>
       </c>
       <c r="D62" s="3">
-        <v>15792.446311211501</v>
+        <v>15778.4043696847</v>
       </c>
       <c r="E62" s="3">
-        <v>15830.1484232069</v>
-      </c>
-      <c r="F62" s="3">
-        <v>15868.586934395</v>
-      </c>
-      <c r="G62" s="28">
+        <v>15836.2671868082</v>
+      </c>
+      <c r="F62" s="27">
         <f>D62/$C62-1</f>
-        <v>7.8873962050063362E-4</v>
-      </c>
-      <c r="H62" s="28">
+        <v>-1.0111725698980223E-4</v>
+      </c>
+      <c r="G62" s="27">
         <f>E62/$C62-1</f>
-        <v>3.1779735872559112E-3</v>
-      </c>
-      <c r="I62" s="28">
-        <f>F62/$C62-1</f>
-        <v>5.613874169518418E-3</v>
-      </c>
-      <c r="J62" s="4">
-        <f>12.038/1000</f>
-        <v>1.2038E-2</v>
-      </c>
-      <c r="K62" s="1">
+        <v>3.5657279346135162E-3</v>
+      </c>
+      <c r="H62" s="4">
+        <f>12.088/1000</f>
+        <v>1.2088E-2</v>
+      </c>
+      <c r="I62" s="1">
         <v>5000</v>
       </c>
-      <c r="L62" s="7">
-        <f>K62*J62</f>
-        <v>60.19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J62" s="7">
+        <f>I62*H62</f>
+        <v>60.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
@@ -1660,69 +1605,285 @@
         <v>2634.70097254335</v>
       </c>
       <c r="D63" s="3">
-        <v>2596.45252639924</v>
+        <v>2601.2502842901199</v>
       </c>
       <c r="E63" s="3">
-        <v>2617.0127543233898</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2637.4326821883201</v>
-      </c>
-      <c r="G63" s="28">
+        <v>2673.0229723400998</v>
+      </c>
+      <c r="F63" s="27">
         <f>D63/$C63-1</f>
-        <v>-1.4517186786167868E-2</v>
-      </c>
-      <c r="H63" s="28">
+        <v>-1.2696199151943643E-2</v>
+      </c>
+      <c r="G63" s="27">
         <f>E63/$C63-1</f>
-        <v>-6.7135581624980789E-3</v>
-      </c>
-      <c r="I63" s="28">
-        <f>F63/$C63-1</f>
-        <v>1.0368196138528241E-3</v>
-      </c>
-      <c r="J63" s="4">
-        <f>19.962/1000</f>
-        <v>1.9962000000000001E-2</v>
-      </c>
-      <c r="K63" s="1">
+        <v>1.4545104053974134E-2</v>
+      </c>
+      <c r="H63" s="4">
+        <f>20.28/1000</f>
+        <v>2.0279999999999999E-2</v>
+      </c>
+      <c r="I63" s="1">
         <v>5000</v>
       </c>
-      <c r="L63" s="7">
-        <f>K63*J63</f>
-        <v>99.81</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="J63" s="7">
+        <f>I63*H63</f>
+        <v>101.39999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>48</v>
+      </c>
+      <c r="C67" s="3">
+        <f>10628*SQRT(10)</f>
+        <v>33608.686972269541</v>
+      </c>
+      <c r="D67" s="3">
+        <v>33523.708507388299</v>
+      </c>
+      <c r="E67" s="3">
+        <v>33701.261761817397</v>
+      </c>
+      <c r="F67" s="27">
+        <f>D67/$C67-1</f>
+        <v>-2.5284672665539798E-3</v>
+      </c>
+      <c r="G67" s="27">
+        <f>E67/$C67-1</f>
+        <v>2.7544899217348817E-3</v>
+      </c>
+      <c r="H67" s="6">
+        <f>0.462/1000</f>
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="I67" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J67" s="7">
+        <f>I67*H67</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>101</v>
+      </c>
+      <c r="C68" s="1">
+        <v>629</v>
+      </c>
+      <c r="D68" s="5">
+        <v>644.29058299329199</v>
+      </c>
+      <c r="E68" s="5">
+        <v>651.55053403457703</v>
+      </c>
+      <c r="F68" s="27">
+        <f>D68/$C68-1</f>
+        <v>2.4309352930511841E-2</v>
+      </c>
+      <c r="G68" s="27">
+        <f>E68/$C68-1</f>
+        <v>3.5851405460376906E-2</v>
+      </c>
+      <c r="H68" s="4">
+        <f>3.07/1000</f>
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J68" s="7">
+        <f>I68*H68</f>
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>150</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6528</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6564.6906737142199</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6644.7446016108597</v>
+      </c>
+      <c r="F69" s="27">
+        <f>D69/$C69-1</f>
+        <v>5.6205076155362299E-3</v>
+      </c>
+      <c r="G69" s="27">
+        <f>E69/$C69-1</f>
+        <v>1.7883670589898815E-2</v>
+      </c>
+      <c r="H69" s="4">
+        <f>7.032/1000</f>
+        <v>7.0320000000000001E-3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J69" s="7">
+        <f>I69*H69</f>
+        <v>35.160000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>198</v>
+      </c>
+      <c r="C70" s="3">
+        <v>15780</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15778.404369833001</v>
+      </c>
+      <c r="E70" s="3">
+        <v>15834.9145874159</v>
+      </c>
+      <c r="F70" s="27">
+        <f>D70/$C70-1</f>
+        <v>-1.0111724759187535E-4</v>
+      </c>
+      <c r="G70" s="27">
+        <f>E70/$C70-1</f>
+        <v>3.4800118767996935E-3</v>
+      </c>
+      <c r="H70" s="4">
+        <f>12.122/1000</f>
+        <v>1.2121999999999999E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J70" s="7">
+        <f>I70*H70</f>
+        <v>60.609999999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>280</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2634.70097254335</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2625.5888878836899</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2665.3324986602702</v>
+      </c>
+      <c r="F71" s="27">
+        <f>D71/$C71-1</f>
+        <v>-3.4584891244275884E-3</v>
+      </c>
+      <c r="G71" s="27">
+        <f>E71/$C71-1</f>
+        <v>1.1626186970034258E-2</v>
+      </c>
+      <c r="H71" s="4">
+        <f>20.728/1000</f>
+        <v>2.0728E-2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J71" s="7">
+        <f>I71*H71</f>
+        <v>103.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
@@ -2322,19 +2483,24 @@
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="8"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
+  <mergeCells count="16">
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="H57:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED110FC4-7E06-4CBD-950C-8E96EF1847F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7539AD0F-633C-4254-B736-0F51DDEA25F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>a280</t>
   </si>
@@ -250,13 +250,16 @@
     <t>                    :opt!           ,</t>
   </si>
   <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
     <t>:random, :savings</t>
   </si>
   <si>
     <t>MersenneTwister(1104); MersenneTwister(2104); MersenneTwister(2806); MersenneTwister(1010); MersenneTwister(2111)</t>
+  </si>
+  <si>
+    <t>:random</t>
+  </si>
+  <si>
+    <t>:savings</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="JuliaMono"/>
       <family val="3"/>
@@ -325,7 +321,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="JuliaMono"/>
       <family val="3"/>
     </font>
@@ -490,15 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -506,69 +520,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -861,41 +889,45 @@
     <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9.453125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6328125" style="1" customWidth="1"/>
     <col min="11" max="12" width="8.6328125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="2"/>
@@ -903,1596 +935,1602 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+    </row>
+    <row r="57" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="36">
         <v>48</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-    </row>
-    <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="34"/>
-      <c r="H57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
-        <v>48</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="C59" s="37">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="37">
         <v>33523.708507395801</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="37">
         <v>33784.027010219201</v>
       </c>
-      <c r="F59" s="27">
-        <f>D59/$C59-1</f>
+      <c r="F59" s="38">
+        <f t="shared" ref="F59:G63" si="0">D59/$C59-1</f>
         <v>-2.5284672663307139E-3</v>
       </c>
-      <c r="G59" s="27">
-        <f>E59/$C59-1</f>
+      <c r="G59" s="38">
+        <f t="shared" si="0"/>
         <v>5.2171046757742978E-3</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="39">
         <f>0.462/1000</f>
         <v>4.6200000000000001E-4</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="19">
         <v>5000</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="40">
         <f>I59*H59</f>
         <v>2.31</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="19">
         <v>101</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="19">
         <v>629</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="41">
         <v>644.26559495367803</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="41">
         <v>651.19255106944195</v>
       </c>
-      <c r="F60" s="27">
-        <f>D60/$C60-1</f>
+      <c r="F60" s="38">
+        <f t="shared" si="0"/>
         <v>2.4269626317453108E-2</v>
       </c>
-      <c r="G60" s="27">
-        <f>E60/$C60-1</f>
+      <c r="G60" s="38">
+        <f t="shared" si="0"/>
         <v>3.5282275150146258E-2</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="42">
         <f>2.926/1000</f>
         <v>2.9260000000000002E-3</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="19">
         <v>5000</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="40">
         <f>I60*H60</f>
         <v>14.63</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="36">
         <v>150</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="37">
         <v>6528</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="37">
         <v>6580.5075392694498</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="37">
         <v>6618.2234525017102</v>
       </c>
-      <c r="F61" s="27">
-        <f>D61/$C61-1</f>
+      <c r="F61" s="38">
+        <f t="shared" si="0"/>
         <v>8.0434343243642736E-3</v>
       </c>
-      <c r="G61" s="27">
-        <f>E61/$C61-1</f>
+      <c r="G61" s="38">
+        <f t="shared" si="0"/>
         <v>1.3820994562149247E-2</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="42">
         <f>7.598/1000</f>
         <v>7.5979999999999997E-3</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="19">
         <v>5000</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="40">
         <f>I61*H61</f>
         <v>37.99</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="36">
         <v>198</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="37">
         <v>15780</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="37">
         <v>15778.4043696847</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="37">
         <v>15836.2671868082</v>
       </c>
-      <c r="F62" s="27">
-        <f>D62/$C62-1</f>
+      <c r="F62" s="38">
+        <f t="shared" si="0"/>
         <v>-1.0111725698980223E-4</v>
       </c>
-      <c r="G62" s="27">
-        <f>E62/$C62-1</f>
+      <c r="G62" s="38">
+        <f t="shared" si="0"/>
         <v>3.5657279346135162E-3</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="42">
         <f>12.088/1000</f>
         <v>1.2088E-2</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="19">
         <v>5000</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="40">
         <f>I62*H62</f>
         <v>60.44</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="36">
         <v>280</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="37">
         <v>2634.70097254335</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="37">
         <v>2601.2502842901199</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="37">
         <v>2673.0229723400998</v>
       </c>
-      <c r="F63" s="27">
-        <f>D63/$C63-1</f>
+      <c r="F63" s="38">
+        <f t="shared" si="0"/>
         <v>-1.2696199151943643E-2</v>
       </c>
-      <c r="G63" s="27">
-        <f>E63/$C63-1</f>
+      <c r="G63" s="38">
+        <f t="shared" si="0"/>
         <v>1.4545104053974134E-2</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="42">
         <f>20.28/1000</f>
         <v>2.0279999999999999E-2</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="19">
         <v>5000</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="40">
         <f>I63*H63</f>
         <v>101.39999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B66" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C66" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33" t="s">
+      <c r="E66" s="30"/>
+      <c r="F66" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="29" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I66" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="J66" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="28" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="36">
         <v>48</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C68" s="37">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="37">
         <v>33523.708507388299</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="37">
         <v>33701.261761817397</v>
       </c>
-      <c r="F67" s="27">
-        <f>D67/$C67-1</f>
+      <c r="F68" s="38">
+        <f t="shared" ref="F68:G72" si="1">D68/$C68-1</f>
         <v>-2.5284672665539798E-3</v>
       </c>
-      <c r="G67" s="27">
-        <f>E67/$C67-1</f>
+      <c r="G68" s="38">
+        <f t="shared" si="1"/>
         <v>2.7544899217348817E-3</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="39">
         <f>0.462/1000</f>
         <v>4.6200000000000001E-4</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I68" s="19">
         <v>5000</v>
       </c>
-      <c r="J67" s="7">
-        <f>I67*H67</f>
+      <c r="J68" s="40">
+        <f>I68*H68</f>
         <v>2.31</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="19">
         <v>101</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="19">
         <v>629</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="41">
         <v>644.29058299329199</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="41">
         <v>651.55053403457703</v>
       </c>
-      <c r="F68" s="27">
-        <f>D68/$C68-1</f>
+      <c r="F69" s="38">
+        <f t="shared" si="1"/>
         <v>2.4309352930511841E-2</v>
       </c>
-      <c r="G68" s="27">
-        <f>E68/$C68-1</f>
+      <c r="G69" s="38">
+        <f t="shared" si="1"/>
         <v>3.5851405460376906E-2</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H69" s="42">
         <f>3.07/1000</f>
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I69" s="19">
         <v>5000</v>
       </c>
-      <c r="J68" s="7">
-        <f>I68*H68</f>
+      <c r="J69" s="40">
+        <f>I69*H69</f>
         <v>15.35</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="36">
         <v>150</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C70" s="37">
         <v>6528</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="37">
         <v>6564.6906737142199</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="37">
         <v>6644.7446016108597</v>
       </c>
-      <c r="F69" s="27">
-        <f>D69/$C69-1</f>
+      <c r="F70" s="38">
+        <f t="shared" si="1"/>
         <v>5.6205076155362299E-3</v>
       </c>
-      <c r="G69" s="27">
-        <f>E69/$C69-1</f>
+      <c r="G70" s="38">
+        <f t="shared" si="1"/>
         <v>1.7883670589898815E-2</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="42">
         <f>7.032/1000</f>
         <v>7.0320000000000001E-3</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I70" s="19">
         <v>5000</v>
       </c>
-      <c r="J69" s="7">
-        <f>I69*H69</f>
+      <c r="J70" s="40">
+        <f>I70*H70</f>
         <v>35.160000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="36">
         <v>198</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="37">
         <v>15780</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="37">
         <v>15778.404369833001</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="37">
         <v>15834.9145874159</v>
       </c>
-      <c r="F70" s="27">
-        <f>D70/$C70-1</f>
+      <c r="F71" s="38">
+        <f t="shared" si="1"/>
         <v>-1.0111724759187535E-4</v>
       </c>
-      <c r="G70" s="27">
-        <f>E70/$C70-1</f>
+      <c r="G71" s="38">
+        <f t="shared" si="1"/>
         <v>3.4800118767996935E-3</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H71" s="42">
         <f>12.122/1000</f>
         <v>1.2121999999999999E-2</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I71" s="19">
         <v>5000</v>
       </c>
-      <c r="J70" s="7">
-        <f>I70*H70</f>
+      <c r="J71" s="40">
+        <f>I71*H71</f>
         <v>60.609999999999992</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="36">
         <v>280</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C72" s="37">
         <v>2634.70097254335</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="37">
         <v>2625.5888878836899</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="37">
         <v>2665.3324986602702</v>
       </c>
-      <c r="F71" s="27">
-        <f>D71/$C71-1</f>
+      <c r="F72" s="38">
+        <f t="shared" si="1"/>
         <v>-3.4584891244275884E-3</v>
       </c>
-      <c r="G71" s="27">
-        <f>E71/$C71-1</f>
+      <c r="G72" s="38">
+        <f t="shared" si="1"/>
         <v>1.1626186970034258E-2</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="42">
         <f>20.728/1000</f>
         <v>2.0728E-2</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I72" s="19">
         <v>5000</v>
       </c>
-      <c r="J71" s="7">
-        <f>I71*H71</f>
+      <c r="J72" s="40">
+        <f>I72*H72</f>
         <v>103.64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="8"/>
-    </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="8"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="8"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="8"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="8"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="8"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="8"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="8"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="8"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="8"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="8"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="8"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="8"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="8"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="8"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="8"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="8"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="8"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="8"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="8"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="8"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="8"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="8"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="8"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="8"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="8"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="8"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="8"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="8"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="8"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="8"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="8"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="8"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="8"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="8"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="8"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="8"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="8"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="8"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="8"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="8"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="8"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="8"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="8"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="8"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="8"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="8"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="8"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="8"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="8"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="8"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="8"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="8"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="8"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="8"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="8"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="8"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="8"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="8"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="8"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="8"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="8"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="8"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="8"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="8"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="8"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="8"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="8"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="8"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="8"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="8"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="8"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="8"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="8"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="8"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="8"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="8"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="8"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="8"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="8"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="8"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="8"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="8"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="8"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="8"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="8"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="8"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="8"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="8"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="8"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="8"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="8"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="8"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="8"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="8"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="8"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="8"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="8"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="8"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="8"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="8"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="8"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="8"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="8"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="8"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="8"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="8"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="8"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="8"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="8"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="8"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="8"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="8"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="8"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="8"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="8"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="8"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="8"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="8"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="8"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="8"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="8"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="8"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="8"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="8"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="8"/>
+      <c r="B197" s="3"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="8"/>
+      <c r="B198" s="3"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="8"/>
+      <c r="B199" s="3"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="8"/>
+      <c r="B200" s="3"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="8"/>
+      <c r="B201" s="3"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="8"/>
+      <c r="B202" s="3"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="8"/>
+      <c r="B203" s="3"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="8"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="8"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="8"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="8"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="8"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="8"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="8"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="8"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="8"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="8"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="8"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="8"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="8"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="8"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="8"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="8"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="8"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="8"/>
+      <c r="B221" s="3"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" s="8"/>
+      <c r="B222" s="3"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="8"/>
+      <c r="B223" s="3"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="8"/>
+      <c r="B224" s="3"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="8"/>
+      <c r="B225" s="3"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="8"/>
+      <c r="B226" s="3"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="8"/>
+      <c r="B227" s="3"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="8"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="8"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="8"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="8"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="8"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="8"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="8"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="8"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="8"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="8"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="8"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="8"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="8"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="8"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="8"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="8"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="8"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="8"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="8"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="8"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="8"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="8"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="8"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="8"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="8"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="8"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="8"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="8"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="8"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="8"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="8"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="8"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" s="8"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" s="8"/>
+      <c r="B261" s="3"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="8"/>
+      <c r="B262" s="3"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" s="8"/>
+      <c r="B263" s="3"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="8"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" s="8"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="8"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" s="8"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="8"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" s="8"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="8"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="8"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" s="8"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="8"/>
+      <c r="B273" s="3"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="8"/>
+      <c r="B274" s="3"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="8"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="8"/>
+      <c r="B276" s="3"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="8"/>
+      <c r="B277" s="3"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="8"/>
+      <c r="B278" s="3"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="8"/>
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="D57:E57"/>
@@ -2501,6 +2539,14 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7539AD0F-633C-4254-B736-0F51DDEA25F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5194DE-4D53-44A1-BA00-7DB3DEC65BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,21 +595,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1441,88 +1441,88 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J57" s="33" t="s">
+      <c r="J57" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="29">
         <v>48</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="30">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D59" s="37">
-        <v>33523.708507395801</v>
-      </c>
-      <c r="E59" s="37">
+      <c r="D59" s="30">
+        <v>33523.708507261799</v>
+      </c>
+      <c r="E59" s="30">
         <v>33784.027010219201</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="31">
         <f t="shared" ref="F59:G63" si="0">D59/$C59-1</f>
-        <v>-2.5284672663307139E-3</v>
-      </c>
-      <c r="G59" s="38">
+        <v>-2.5284672703178579E-3</v>
+      </c>
+      <c r="G59" s="31">
         <f t="shared" si="0"/>
         <v>5.2171046757742978E-3</v>
       </c>
-      <c r="H59" s="39">
-        <f>0.462/1000</f>
-        <v>4.6200000000000001E-4</v>
+      <c r="H59" s="32">
+        <f>0.442/1000</f>
+        <v>4.4200000000000001E-4</v>
       </c>
       <c r="I59" s="19">
         <v>5000</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J59" s="33">
         <f>I59*H59</f>
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -1535,138 +1535,138 @@
       <c r="C60" s="19">
         <v>629</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="34">
         <v>644.26559495367803</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="34">
         <v>651.19255106944195</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="31">
         <f t="shared" si="0"/>
         <v>2.4269626317453108E-2</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="31">
         <f t="shared" si="0"/>
         <v>3.5282275150146258E-2</v>
       </c>
-      <c r="H60" s="42">
-        <f>2.926/1000</f>
-        <v>2.9260000000000002E-3</v>
+      <c r="H60" s="35">
+        <f>2.912/1000</f>
+        <v>2.9120000000000001E-3</v>
       </c>
       <c r="I60" s="19">
         <v>5000</v>
       </c>
-      <c r="J60" s="40">
+      <c r="J60" s="33">
         <f>I60*H60</f>
-        <v>14.63</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="29">
         <v>150</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="30">
         <v>6528</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="30">
         <v>6580.5075392694498</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="30">
         <v>6618.2234525017102</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="31">
         <f t="shared" si="0"/>
         <v>8.0434343243642736E-3</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="31">
         <f t="shared" si="0"/>
         <v>1.3820994562149247E-2</v>
       </c>
-      <c r="H61" s="42">
-        <f>7.598/1000</f>
-        <v>7.5979999999999997E-3</v>
+      <c r="H61" s="35">
+        <f>7.45/1000</f>
+        <v>7.45E-3</v>
       </c>
       <c r="I61" s="19">
         <v>5000</v>
       </c>
-      <c r="J61" s="40">
+      <c r="J61" s="33">
         <f>I61*H61</f>
-        <v>37.99</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="29">
         <v>198</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="30">
         <v>15780</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="30">
         <v>15778.4043696847</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="30">
         <v>15836.2671868082</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="31">
         <f t="shared" si="0"/>
         <v>-1.0111725698980223E-4</v>
       </c>
-      <c r="G62" s="38">
+      <c r="G62" s="31">
         <f t="shared" si="0"/>
         <v>3.5657279346135162E-3</v>
       </c>
-      <c r="H62" s="42">
-        <f>12.088/1000</f>
-        <v>1.2088E-2</v>
+      <c r="H62" s="35">
+        <f>11.902/1000</f>
+        <v>1.1901999999999999E-2</v>
       </c>
       <c r="I62" s="19">
         <v>5000</v>
       </c>
-      <c r="J62" s="40">
+      <c r="J62" s="33">
         <f>I62*H62</f>
-        <v>60.44</v>
+        <v>59.51</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="29">
         <v>280</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="30">
         <v>2634.70097254335</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="30">
         <v>2601.2502842901199</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="30">
         <v>2673.0229723400998</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="31">
         <f t="shared" si="0"/>
         <v>-1.2696199151943643E-2</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="31">
         <f t="shared" si="0"/>
         <v>1.4545104053974134E-2</v>
       </c>
-      <c r="H63" s="42">
-        <f>20.28/1000</f>
-        <v>2.0279999999999999E-2</v>
+      <c r="H63" s="35">
+        <f>19.99/1000</f>
+        <v>1.9989999999999997E-2</v>
       </c>
       <c r="I63" s="19">
         <v>5000</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J63" s="33">
         <f>I63*H63</f>
-        <v>101.39999999999999</v>
+        <v>99.949999999999989</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.3">
@@ -1677,88 +1677,88 @@
       <c r="C65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33" t="s">
+      <c r="G66" s="41"/>
+      <c r="H66" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="33" t="s">
+      <c r="I66" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="33" t="s">
+      <c r="J66" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="29">
         <v>48</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="30">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="30">
         <v>33523.708507388299</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="30">
         <v>33701.261761817397</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="31">
         <f t="shared" ref="F68:G72" si="1">D68/$C68-1</f>
         <v>-2.5284672665539798E-3</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="31">
         <f t="shared" si="1"/>
         <v>2.7544899217348817E-3</v>
       </c>
-      <c r="H68" s="39">
-        <f>0.462/1000</f>
-        <v>4.6200000000000001E-4</v>
+      <c r="H68" s="32">
+        <f>0.446/1000</f>
+        <v>4.46E-4</v>
       </c>
       <c r="I68" s="19">
         <v>5000</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="33">
         <f>I68*H68</f>
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -1771,138 +1771,138 @@
       <c r="C69" s="19">
         <v>629</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="34">
         <v>644.29058299329199</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="34">
         <v>651.55053403457703</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="31">
         <f t="shared" si="1"/>
         <v>2.4309352930511841E-2</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="31">
         <f t="shared" si="1"/>
         <v>3.5851405460376906E-2</v>
       </c>
-      <c r="H69" s="42">
-        <f>3.07/1000</f>
-        <v>3.0699999999999998E-3</v>
+      <c r="H69" s="35">
+        <f>2.918/1000</f>
+        <v>2.918E-3</v>
       </c>
       <c r="I69" s="19">
         <v>5000</v>
       </c>
-      <c r="J69" s="40">
+      <c r="J69" s="33">
         <f>I69*H69</f>
-        <v>15.35</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="29">
         <v>150</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="30">
         <v>6528</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="30">
         <v>6564.6906737142199</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="30">
         <v>6644.7446016108597</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="31">
         <f t="shared" si="1"/>
         <v>5.6205076155362299E-3</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="31">
         <f t="shared" si="1"/>
         <v>1.7883670589898815E-2</v>
       </c>
-      <c r="H70" s="42">
-        <f>7.032/1000</f>
-        <v>7.0320000000000001E-3</v>
+      <c r="H70" s="35">
+        <f>6.93/1000</f>
+        <v>6.9299999999999995E-3</v>
       </c>
       <c r="I70" s="19">
         <v>5000</v>
       </c>
-      <c r="J70" s="40">
+      <c r="J70" s="33">
         <f>I70*H70</f>
-        <v>35.160000000000004</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="29">
         <v>198</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="30">
         <v>15780</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="30">
         <v>15778.404369833001</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="30">
         <v>15834.9145874159</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="31">
         <f t="shared" si="1"/>
         <v>-1.0111724759187535E-4</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="31">
         <f t="shared" si="1"/>
         <v>3.4800118767996935E-3</v>
       </c>
-      <c r="H71" s="42">
-        <f>12.122/1000</f>
-        <v>1.2121999999999999E-2</v>
+      <c r="H71" s="35">
+        <f>11.984/1000</f>
+        <v>1.1984E-2</v>
       </c>
       <c r="I71" s="19">
         <v>5000</v>
       </c>
-      <c r="J71" s="40">
+      <c r="J71" s="33">
         <f>I71*H71</f>
-        <v>60.609999999999992</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="29">
         <v>280</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="30">
         <v>2634.70097254335</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="30">
         <v>2625.5888878836899</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E72" s="30">
         <v>2665.3324986602702</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="31">
         <f t="shared" si="1"/>
         <v>-3.4584891244275884E-3</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="31">
         <f t="shared" si="1"/>
         <v>1.1626186970034258E-2</v>
       </c>
-      <c r="H72" s="42">
-        <f>20.728/1000</f>
-        <v>2.0728E-2</v>
+      <c r="H72" s="35">
+        <f>20.118/1000</f>
+        <v>2.0117999999999997E-2</v>
       </c>
       <c r="I72" s="19">
         <v>5000</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="33">
         <f>I72*H72</f>
-        <v>103.64</v>
+        <v>100.58999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -2531,6 +2531,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="D57:E57"/>
@@ -2539,14 +2547,6 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5194DE-4D53-44A1-BA00-7DB3DEC65BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92232F23-E94C-44AF-A374-FC17878D655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,12 +148,6 @@
     <t>rng</t>
   </si>
   <si>
-    <t>                    :randomnode!    ,</t>
-  </si>
-  <si>
-    <t>                    :relatednode!   ,</t>
-  </si>
-  <si>
     <t>                    :worstnode!</t>
   </si>
   <si>
@@ -232,24 +226,6 @@
 Iterations</t>
   </si>
   <si>
-    <t>                    :best!          ,</t>
-  </si>
-  <si>
-    <t>                    :precise!       ,</t>
-  </si>
-  <si>
-    <t>                    :perturb!       ,</t>
-  </si>
-  <si>
-    <t>                    :regret2!       ,</t>
-  </si>
-  <si>
-    <t>                    :move!          ,</t>
-  </si>
-  <si>
-    <t>                    :opt!           ,</t>
-  </si>
-  <si>
     <t>:random, :savings</t>
   </si>
   <si>
@@ -260,6 +236,30 @@
   </si>
   <si>
     <t>:savings</t>
+  </si>
+  <si>
+    <t>                    :randomnode!        ,</t>
+  </si>
+  <si>
+    <t>                    :relatednode!       ,</t>
+  </si>
+  <si>
+    <t>                    :best!              ,</t>
+  </si>
+  <si>
+    <t>                    :precise!           ,</t>
+  </si>
+  <si>
+    <t>                    :perturb!           ,</t>
+  </si>
+  <si>
+    <t>                    :regret2!           ,</t>
+  </si>
+  <si>
+    <t>                    :move!              ,</t>
+  </si>
+  <si>
+    <t>                    :opt!               ,</t>
   </si>
 </sst>
 </file>
@@ -582,6 +582,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,9 +595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +881,7 @@
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1051,7 +1051,7 @@
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1437,35 +1437,35 @@
     </row>
     <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="38" t="s">
+      <c r="C57" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" s="36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -1473,16 +1473,16 @@
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -1671,37 +1671,37 @@
     </row>
     <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="38" t="s">
+      <c r="C66" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="40"/>
+      <c r="F66" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J66" s="36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -1709,16 +1709,16 @@
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -2531,6 +2531,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="H57:H58"/>
     <mergeCell ref="H66:H67"/>
     <mergeCell ref="I66:I67"/>
     <mergeCell ref="J66:J67"/>
@@ -2539,14 +2547,6 @@
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="H57:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BDE6C-ADDB-4E3E-83ED-46F746E97E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED902D-4043-43D7-B64B-2AB24F2872BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Instance</t>
   </si>
@@ -88,21 +88,6 @@
   </si>
   <si>
     <t>rng</t>
-  </si>
-  <si>
-    <t>prins20-5-1</t>
-  </si>
-  <si>
-    <t>prins50-5-1b</t>
-  </si>
-  <si>
-    <t>prins100-5-2</t>
-  </si>
-  <si>
-    <t>gaskell36-5</t>
-  </si>
-  <si>
-    <t>daskin88-8</t>
   </si>
   <si>
     <t>22H2</t>
@@ -1098,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -1130,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1143,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1174,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1182,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1216,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1225,10 +1210,10 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1249,7 +1234,7 @@
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" s="18"/>
       <c r="K19" s="1"/>
@@ -1258,7 +1243,7 @@
     </row>
     <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1277,14 +1262,14 @@
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1293,14 +1278,14 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1308,14 +1293,14 @@
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1328,14 +1313,14 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1344,14 +1329,14 @@
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1364,7 +1349,7 @@
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1388,7 +1373,7 @@
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1412,7 +1397,7 @@
     </row>
     <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1436,7 +1421,7 @@
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1460,14 +1445,14 @@
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1487,7 +1472,7 @@
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1512,7 +1497,7 @@
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1537,7 +1522,7 @@
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1562,7 +1547,7 @@
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1587,7 +1572,7 @@
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1612,7 +1597,7 @@
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1637,14 +1622,14 @@
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1653,7 +1638,7 @@
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1667,7 +1652,7 @@
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1681,7 +1666,7 @@
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1695,7 +1680,7 @@
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1709,14 +1694,14 @@
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1726,14 +1711,14 @@
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1746,14 +1731,14 @@
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1761,14 +1746,14 @@
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1776,14 +1761,14 @@
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1791,14 +1776,14 @@
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1806,14 +1791,14 @@
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1821,14 +1806,14 @@
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1836,14 +1821,14 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1851,42 +1836,42 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1894,14 +1879,14 @@
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2505,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2523,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2537,7 +2522,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
       <c r="N1" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
@@ -2555,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -2573,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -2652,7 +2637,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B4" s="28">
         <f>10628*SQRT(10)</f>
@@ -2689,7 +2674,7 @@
         <v>33588.300000000003</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O4" s="24">
         <v>7.532</v>
@@ -2725,7 +2710,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" s="29">
         <v>629</v>
@@ -2761,7 +2746,7 @@
         <v>642.44600000000003</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O5" s="24">
         <v>27.280999999999999</v>
@@ -2797,7 +2782,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B6" s="28">
         <v>6528</v>
@@ -2833,7 +2818,7 @@
         <v>6552.3</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O6" s="24">
         <v>81.046999999999997</v>
@@ -2869,7 +2854,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="28">
         <v>15780</v>
@@ -2905,7 +2890,7 @@
         <v>15795.6</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O7" s="24">
         <v>170.01599999999999</v>
@@ -2941,7 +2926,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="28">
         <v>2634.70097254335</v>
@@ -2977,7 +2962,7 @@
         <v>2602.81</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O8" s="24">
         <v>409.09300000000002</v>
@@ -3029,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3044,7 +3029,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -3058,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>1</v>
@@ -3069,7 +3054,7 @@
       <c r="E2" s="42"/>
       <c r="F2" s="43"/>
       <c r="G2" s="45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45">
@@ -3077,22 +3062,22 @@
       <c r="B3" s="39"/>
       <c r="C3" s="46"/>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
+      <c r="A4" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="4">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <f>MAX(100, B4) * 50</f>
@@ -3123,15 +3108,15 @@
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
+      <c r="A5" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="4">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C8" si="0">MAX(100, B5) * 50</f>
-        <v>5000</v>
+        <v>5050</v>
       </c>
       <c r="D5" s="7">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
@@ -3158,15 +3143,15 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
+      <c r="A6" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="B6" s="4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="D6" s="7">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
@@ -3193,15 +3178,15 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
+      <c r="A7" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="B7" s="4">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>9900</v>
       </c>
       <c r="D7" s="7">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
@@ -3228,15 +3213,15 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
+      <c r="A8" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="B8" s="4">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>5250</v>
+        <v>14000</v>
       </c>
       <c r="D8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED902D-4043-43D7-B64B-2AB24F2872BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802ED21-6007-43C9-9250-2137CB1D309C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -670,7 +670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -722,7 +721,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,135 +1067,135 @@
   <dimension ref="A1:V275"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="11" customWidth="1"/>
-    <col min="2" max="11" width="9.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.54296875" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="18.54296875" style="10" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1209,7 +1207,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1221,13 +1219,13 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1236,7 +1234,7 @@
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1305,7 +1303,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1325,7 +1323,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -1693,7 +1691,7 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1"/>
@@ -1710,7 +1708,7 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="1"/>
@@ -1730,7 +1728,7 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="1"/>
@@ -1745,7 +1743,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="1"/>
@@ -1760,7 +1758,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="1"/>
@@ -1775,7 +1773,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="1"/>
@@ -1790,7 +1788,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="1"/>
@@ -1805,7 +1803,7 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="1"/>
@@ -1820,7 +1818,7 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="1"/>
@@ -1835,7 +1833,7 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="1"/>
@@ -1849,7 +1847,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="1"/>
@@ -1863,7 +1861,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="1"/>
@@ -1878,7 +1876,7 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="1"/>
@@ -1899,583 +1897,583 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="21"/>
+      <c r="A55" s="20"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="21"/>
-      <c r="J56" s="20"/>
+      <c r="A56" s="20"/>
+      <c r="J56" s="19"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="21"/>
+      <c r="A57" s="20"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="J58" s="20"/>
+      <c r="J58" s="19"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="J59" s="20"/>
+      <c r="J59" s="19"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="J60" s="20"/>
+      <c r="J60" s="19"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J61" s="20"/>
+      <c r="J61" s="19"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J63" s="20"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J64" s="20"/>
+      <c r="J64" s="19"/>
     </row>
     <row r="65" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J65" s="20"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="18"/>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="18"/>
+      <c r="B99" s="17"/>
     </row>
     <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="18"/>
+      <c r="B100" s="17"/>
     </row>
     <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="18"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="18"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="18"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="18"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="18"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="18"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="18"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="18"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
     </row>
     <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
     </row>
     <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
     </row>
     <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
     </row>
     <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
     </row>
     <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="18"/>
+      <c r="B140" s="17"/>
     </row>
     <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="18"/>
+      <c r="B141" s="17"/>
     </row>
     <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="18"/>
+      <c r="B142" s="17"/>
     </row>
     <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="18"/>
+      <c r="B143" s="17"/>
     </row>
     <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="18"/>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="18"/>
+      <c r="B145" s="17"/>
     </row>
     <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="18"/>
+      <c r="B146" s="17"/>
     </row>
     <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="18"/>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="18"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="18"/>
+      <c r="B149" s="17"/>
     </row>
     <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="18"/>
+      <c r="B150" s="17"/>
     </row>
     <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="18"/>
+      <c r="B151" s="17"/>
     </row>
     <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="18"/>
+      <c r="B152" s="17"/>
     </row>
     <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="18"/>
+      <c r="B153" s="17"/>
     </row>
     <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="18"/>
+      <c r="B154" s="17"/>
     </row>
     <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="18"/>
+      <c r="B155" s="17"/>
     </row>
     <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="18"/>
+      <c r="B156" s="17"/>
     </row>
     <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="18"/>
+      <c r="B157" s="17"/>
     </row>
     <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="18"/>
+      <c r="B158" s="17"/>
     </row>
     <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="18"/>
+      <c r="B159" s="17"/>
     </row>
     <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="18"/>
+      <c r="B160" s="17"/>
     </row>
     <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="18"/>
+      <c r="B161" s="17"/>
     </row>
     <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="18"/>
+      <c r="B162" s="17"/>
     </row>
     <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
     </row>
     <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="18"/>
+      <c r="B164" s="17"/>
     </row>
     <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="18"/>
+      <c r="B165" s="17"/>
     </row>
     <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="18"/>
+      <c r="B166" s="17"/>
     </row>
     <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="18"/>
+      <c r="B167" s="17"/>
     </row>
     <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="18"/>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="18"/>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="18"/>
+      <c r="B170" s="17"/>
     </row>
     <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="18"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="18"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="18"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="18"/>
+      <c r="B174" s="17"/>
     </row>
     <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="18"/>
+      <c r="B175" s="17"/>
     </row>
     <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="18"/>
+      <c r="B176" s="17"/>
     </row>
     <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="18"/>
+      <c r="B177" s="17"/>
     </row>
     <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
     </row>
     <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
     </row>
     <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
     </row>
     <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
     </row>
     <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
     </row>
     <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="18"/>
+      <c r="B183" s="17"/>
     </row>
     <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
     </row>
     <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
     </row>
     <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="18"/>
+      <c r="B186" s="17"/>
     </row>
     <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
     </row>
     <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="18"/>
+      <c r="B188" s="17"/>
     </row>
     <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="18"/>
+      <c r="B189" s="17"/>
     </row>
     <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="18"/>
+      <c r="B190" s="17"/>
     </row>
     <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="18"/>
+      <c r="B191" s="17"/>
     </row>
     <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="18"/>
+      <c r="B192" s="17"/>
     </row>
     <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="18"/>
+      <c r="B193" s="17"/>
     </row>
     <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="18"/>
+      <c r="B194" s="17"/>
     </row>
     <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="18"/>
+      <c r="B195" s="17"/>
     </row>
     <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="18"/>
+      <c r="B196" s="17"/>
     </row>
     <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="18"/>
+      <c r="B197" s="17"/>
     </row>
     <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="18"/>
+      <c r="B198" s="17"/>
     </row>
     <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="18"/>
+      <c r="B199" s="17"/>
     </row>
     <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="18"/>
+      <c r="B200" s="17"/>
     </row>
     <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="18"/>
+      <c r="B201" s="17"/>
     </row>
     <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="18"/>
+      <c r="B202" s="17"/>
     </row>
     <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="18"/>
+      <c r="B203" s="17"/>
     </row>
     <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="18"/>
+      <c r="B204" s="17"/>
     </row>
     <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="18"/>
+      <c r="B205" s="17"/>
     </row>
     <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="18"/>
+      <c r="B206" s="17"/>
     </row>
     <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="18"/>
+      <c r="B207" s="17"/>
     </row>
     <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="18"/>
+      <c r="B208" s="17"/>
     </row>
     <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="18"/>
+      <c r="B209" s="17"/>
     </row>
     <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="18"/>
+      <c r="B210" s="17"/>
     </row>
     <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="18"/>
+      <c r="B211" s="17"/>
     </row>
     <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="18"/>
+      <c r="B212" s="17"/>
     </row>
     <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="18"/>
+      <c r="B213" s="17"/>
     </row>
     <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="18"/>
+      <c r="B214" s="17"/>
     </row>
     <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="18"/>
+      <c r="B215" s="17"/>
     </row>
     <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="18"/>
+      <c r="B216" s="17"/>
     </row>
     <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="18"/>
+      <c r="B217" s="17"/>
     </row>
     <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="18"/>
+      <c r="B218" s="17"/>
     </row>
     <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="18"/>
+      <c r="B219" s="17"/>
     </row>
     <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="18"/>
+      <c r="B220" s="17"/>
     </row>
     <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="18"/>
+      <c r="B221" s="17"/>
     </row>
     <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="18"/>
+      <c r="B222" s="17"/>
     </row>
     <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="18"/>
+      <c r="B223" s="17"/>
     </row>
     <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="18"/>
+      <c r="B224" s="17"/>
     </row>
     <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="18"/>
+      <c r="B225" s="17"/>
     </row>
     <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="18"/>
+      <c r="B226" s="17"/>
     </row>
     <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="18"/>
+      <c r="B227" s="17"/>
     </row>
     <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="18"/>
+      <c r="B228" s="17"/>
     </row>
     <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="18"/>
+      <c r="B229" s="17"/>
     </row>
     <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="18"/>
+      <c r="B230" s="17"/>
     </row>
     <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="18"/>
+      <c r="B231" s="17"/>
     </row>
     <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="18"/>
+      <c r="B232" s="17"/>
     </row>
     <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="18"/>
+      <c r="B233" s="17"/>
     </row>
     <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="18"/>
+      <c r="B234" s="17"/>
     </row>
     <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="18"/>
+      <c r="B235" s="17"/>
     </row>
     <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="18"/>
+      <c r="B236" s="17"/>
     </row>
     <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="18"/>
+      <c r="B237" s="17"/>
     </row>
     <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="18"/>
+      <c r="B238" s="17"/>
     </row>
     <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="18"/>
+      <c r="B239" s="17"/>
     </row>
     <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="18"/>
+      <c r="B240" s="17"/>
     </row>
     <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="18"/>
+      <c r="B241" s="17"/>
     </row>
     <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="18"/>
+      <c r="B242" s="17"/>
     </row>
     <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="18"/>
+      <c r="B243" s="17"/>
     </row>
     <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="18"/>
+      <c r="B244" s="17"/>
     </row>
     <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="18"/>
+      <c r="B245" s="17"/>
     </row>
     <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="18"/>
+      <c r="B246" s="17"/>
     </row>
     <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="18"/>
+      <c r="B247" s="17"/>
     </row>
     <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="18"/>
+      <c r="B248" s="17"/>
     </row>
     <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="18"/>
+      <c r="B249" s="17"/>
     </row>
     <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="18"/>
+      <c r="B250" s="17"/>
     </row>
     <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="18"/>
+      <c r="B251" s="17"/>
     </row>
     <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="18"/>
+      <c r="B252" s="17"/>
     </row>
     <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="18"/>
+      <c r="B253" s="17"/>
     </row>
     <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="18"/>
+      <c r="B254" s="17"/>
     </row>
     <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="18"/>
+      <c r="B255" s="17"/>
     </row>
     <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="18"/>
+      <c r="B256" s="17"/>
     </row>
     <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="18"/>
+      <c r="B257" s="17"/>
     </row>
     <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="18"/>
+      <c r="B258" s="17"/>
     </row>
     <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="18"/>
+      <c r="B259" s="17"/>
     </row>
     <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="18"/>
+      <c r="B260" s="17"/>
     </row>
     <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="18"/>
+      <c r="B261" s="17"/>
     </row>
     <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="18"/>
+      <c r="B262" s="17"/>
     </row>
     <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="18"/>
+      <c r="B263" s="17"/>
     </row>
     <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="18"/>
+      <c r="B264" s="17"/>
     </row>
     <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="18"/>
+      <c r="B265" s="17"/>
     </row>
     <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="18"/>
+      <c r="B266" s="17"/>
     </row>
     <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="18"/>
+      <c r="B267" s="17"/>
     </row>
     <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="18"/>
+      <c r="B268" s="17"/>
     </row>
     <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="18"/>
+      <c r="B269" s="17"/>
     </row>
     <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="18"/>
+      <c r="B270" s="17"/>
     </row>
     <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="18"/>
+      <c r="B271" s="17"/>
     </row>
     <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="18"/>
+      <c r="B272" s="17"/>
     </row>
     <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="18"/>
+      <c r="B273" s="17"/>
     </row>
     <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="18"/>
+      <c r="B274" s="17"/>
     </row>
     <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="18"/>
+      <c r="B275" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2491,510 +2489,510 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.54296875" style="22" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.54296875" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="22"/>
+    <col min="1" max="1" width="17.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="8.54296875" style="21" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="N1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="N2" s="38" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="N2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="23">
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="22">
         <v>1010</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>1104</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>1509</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>1604</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>1905</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>2104</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>2412</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>2703</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>2710</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>2807</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="23">
+      <c r="N3" s="37"/>
+      <c r="O3" s="22">
         <v>1010</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <v>1104</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <v>1509</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <v>1604</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <v>1905</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <v>2104</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <v>2412</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="22">
         <v>2703</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="22">
         <v>2710</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="22">
         <v>2807</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>33523.699999999997</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="E4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="F4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="G4" s="23">
         <v>33588.300000000003</v>
       </c>
-      <c r="E4" s="24">
+      <c r="H4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="I4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="J4" s="23">
+        <v>33523.699999999997</v>
+      </c>
+      <c r="K4" s="23">
         <v>33588.300000000003</v>
       </c>
-      <c r="F4" s="24">
+      <c r="L4" s="23">
         <v>33588.300000000003</v>
       </c>
-      <c r="G4" s="24">
-        <v>33523.699999999997</v>
-      </c>
-      <c r="H4" s="24">
-        <v>33588.300000000003</v>
-      </c>
-      <c r="I4" s="24">
-        <v>33588.300000000003</v>
-      </c>
-      <c r="J4" s="24">
-        <v>33523.699999999997</v>
-      </c>
-      <c r="K4" s="24">
-        <v>33523.699999999997</v>
-      </c>
-      <c r="L4" s="24">
-        <v>33588.300000000003</v>
-      </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="24">
-        <v>7.532</v>
-      </c>
-      <c r="P4" s="24">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>7.234</v>
-      </c>
-      <c r="R4" s="24">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="S4" s="24">
-        <v>7.2039999999999997</v>
-      </c>
-      <c r="T4" s="24">
-        <v>7.14</v>
-      </c>
-      <c r="U4" s="24">
-        <v>7.2350000000000003</v>
-      </c>
-      <c r="V4" s="24">
-        <v>7.173</v>
-      </c>
-      <c r="W4" s="24">
-        <v>7.2190000000000003</v>
-      </c>
-      <c r="X4" s="24">
-        <v>7.2510000000000003</v>
-      </c>
-      <c r="BA4" s="26"/>
+      <c r="O4" s="23">
+        <v>8.64</v>
+      </c>
+      <c r="P4" s="23">
+        <v>7.6870000000000003</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="R4" s="23">
+        <v>7.359</v>
+      </c>
+      <c r="S4" s="23">
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="T4" s="23">
+        <v>7.375</v>
+      </c>
+      <c r="U4" s="23">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="V4" s="23">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="W4" s="23">
+        <v>7.4050000000000002</v>
+      </c>
+      <c r="X4" s="23">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="BA4" s="24"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>629</v>
       </c>
-      <c r="C5" s="24">
-        <v>650.98900000000003</v>
-      </c>
-      <c r="D5" s="24">
-        <v>651.91700000000003</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="C5" s="23">
         <v>642.44600000000003</v>
       </c>
-      <c r="F5" s="24">
-        <v>644.26599999999996</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="D5" s="23">
         <v>642.03099999999995</v>
       </c>
-      <c r="H5" s="24">
-        <v>644.91700000000003</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="E5" s="23">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="F5" s="23">
         <v>642.44600000000003</v>
       </c>
-      <c r="J5" s="24">
-        <v>644.26599999999996</v>
-      </c>
-      <c r="K5" s="24">
-        <v>650.79</v>
-      </c>
-      <c r="L5" s="24">
+      <c r="G5" s="23">
         <v>642.44600000000003</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="H5" s="23">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="I5" s="23">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="J5" s="23">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="K5" s="23">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="L5" s="23">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="24">
-        <v>27.280999999999999</v>
-      </c>
-      <c r="P5" s="24">
-        <v>27.814</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>27.420999999999999</v>
-      </c>
-      <c r="R5" s="24">
-        <v>27.405999999999999</v>
-      </c>
-      <c r="S5" s="24">
-        <v>27.562999999999999</v>
-      </c>
-      <c r="T5" s="24">
+      <c r="O5" s="23">
+        <v>27.593</v>
+      </c>
+      <c r="P5" s="23">
+        <v>27.375</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>26.734999999999999</v>
+      </c>
+      <c r="R5" s="23">
         <v>27.297000000000001</v>
       </c>
-      <c r="U5" s="24">
-        <v>27.905999999999999</v>
-      </c>
-      <c r="V5" s="24">
-        <v>27.797999999999998</v>
-      </c>
-      <c r="W5" s="24">
-        <v>27.25</v>
-      </c>
-      <c r="X5" s="24">
-        <v>27.093</v>
-      </c>
-      <c r="BA5" s="26"/>
+      <c r="S5" s="23">
+        <v>26.782</v>
+      </c>
+      <c r="T5" s="23">
+        <v>26.937999999999999</v>
+      </c>
+      <c r="U5" s="23">
+        <v>27.484000000000002</v>
+      </c>
+      <c r="V5" s="23">
+        <v>26.875</v>
+      </c>
+      <c r="W5" s="23">
+        <v>26.952999999999999</v>
+      </c>
+      <c r="X5" s="23">
+        <v>26.609000000000002</v>
+      </c>
+      <c r="BA5" s="24"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>6528</v>
       </c>
-      <c r="C6" s="24">
-        <v>6565.1</v>
-      </c>
-      <c r="D6" s="24">
-        <v>6578.94</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="C6" s="23">
+        <v>6558.92</v>
+      </c>
+      <c r="D6" s="23">
+        <v>6558.92</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6552.3</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6558.92</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6548.76</v>
+      </c>
+      <c r="H6" s="23">
         <v>6570.92</v>
       </c>
-      <c r="F6" s="24">
-        <v>6590</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="I6" s="23">
         <v>6556.12</v>
       </c>
-      <c r="H6" s="24">
-        <v>6564.73</v>
-      </c>
-      <c r="I6" s="24">
-        <v>6570.92</v>
-      </c>
-      <c r="J6" s="24">
-        <v>6575.78</v>
-      </c>
-      <c r="K6" s="24">
-        <v>6570.92</v>
-      </c>
-      <c r="L6" s="24">
-        <v>6552.3</v>
-      </c>
-      <c r="N6" s="22" t="s">
+      <c r="J6" s="23">
+        <v>6556.12</v>
+      </c>
+      <c r="K6" s="23">
+        <v>6564.69</v>
+      </c>
+      <c r="L6" s="23">
+        <v>6558.92</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="24">
-        <v>81.046999999999997</v>
-      </c>
-      <c r="P6" s="24">
-        <v>79.858999999999995</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>80.078999999999994</v>
-      </c>
-      <c r="R6" s="24">
-        <v>80.936999999999998</v>
-      </c>
-      <c r="S6" s="24">
-        <v>81.876000000000005</v>
-      </c>
-      <c r="T6" s="24">
-        <v>79.438000000000002</v>
-      </c>
-      <c r="U6" s="24">
-        <v>80.358999999999995</v>
-      </c>
-      <c r="V6" s="24">
-        <v>82.093999999999994</v>
-      </c>
-      <c r="W6" s="24">
-        <v>81.358999999999995</v>
-      </c>
-      <c r="X6" s="24">
-        <v>79.343000000000004</v>
-      </c>
-      <c r="BA6" s="26"/>
+      <c r="O6" s="23">
+        <v>83.108999999999995</v>
+      </c>
+      <c r="P6" s="23">
+        <v>84.781000000000006</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>83.093999999999994</v>
+      </c>
+      <c r="R6" s="23">
+        <v>83.811999999999998</v>
+      </c>
+      <c r="S6" s="23">
+        <v>83.936999999999998</v>
+      </c>
+      <c r="T6" s="23">
+        <v>84.563000000000002</v>
+      </c>
+      <c r="U6" s="23">
+        <v>83.875</v>
+      </c>
+      <c r="V6" s="23">
+        <v>83.093999999999994</v>
+      </c>
+      <c r="W6" s="23">
+        <v>84.703000000000003</v>
+      </c>
+      <c r="X6" s="23">
+        <v>84.281000000000006</v>
+      </c>
+      <c r="BA6" s="24"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>15780</v>
       </c>
-      <c r="C7" s="24">
-        <v>15785</v>
-      </c>
-      <c r="D7" s="24">
-        <v>15791.7</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="C7" s="23">
+        <v>15784.7</v>
+      </c>
+      <c r="D7" s="23">
+        <v>15781.9</v>
+      </c>
+      <c r="E7" s="23">
         <v>15778.4</v>
       </c>
-      <c r="F7" s="24">
-        <v>15783.7</v>
-      </c>
-      <c r="G7" s="24">
-        <v>15755.5</v>
-      </c>
-      <c r="H7" s="24">
-        <v>15783.7</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="F7" s="23">
+        <v>15786.9</v>
+      </c>
+      <c r="G7" s="23">
+        <v>15784.4</v>
+      </c>
+      <c r="H7" s="23">
+        <v>15804.6</v>
+      </c>
+      <c r="I7" s="23">
+        <v>15786.9</v>
+      </c>
+      <c r="J7" s="23">
         <v>15778.4</v>
       </c>
-      <c r="J7" s="24">
-        <v>15776.9</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>15778.4</v>
       </c>
-      <c r="L7" s="24">
-        <v>15795.6</v>
-      </c>
-      <c r="N7" s="22" t="s">
+      <c r="L7" s="23">
+        <v>15804.2</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="24">
-        <v>170.01599999999999</v>
-      </c>
-      <c r="P7" s="24">
-        <v>173.81200000000001</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>173.76499999999999</v>
-      </c>
-      <c r="R7" s="24">
-        <v>173.15700000000001</v>
-      </c>
-      <c r="S7" s="24">
-        <v>171.32900000000001</v>
-      </c>
-      <c r="T7" s="24">
-        <v>173.03100000000001</v>
-      </c>
-      <c r="U7" s="24">
-        <v>171.95400000000001</v>
-      </c>
-      <c r="V7" s="24">
-        <v>172.60900000000001</v>
-      </c>
-      <c r="W7" s="24">
-        <v>171.68700000000001</v>
-      </c>
-      <c r="X7" s="24">
-        <v>171.51599999999999</v>
-      </c>
-      <c r="BA7" s="26"/>
+      <c r="O7" s="23">
+        <v>180</v>
+      </c>
+      <c r="P7" s="23">
+        <v>176.34399999999999</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>177.93799999999999</v>
+      </c>
+      <c r="R7" s="23">
+        <v>175.71899999999999</v>
+      </c>
+      <c r="S7" s="23">
+        <v>174.501</v>
+      </c>
+      <c r="T7" s="23">
+        <v>174.15700000000001</v>
+      </c>
+      <c r="U7" s="23">
+        <v>176.85900000000001</v>
+      </c>
+      <c r="V7" s="23">
+        <v>175.43700000000001</v>
+      </c>
+      <c r="W7" s="23">
+        <v>176.95400000000001</v>
+      </c>
+      <c r="X7" s="23">
+        <v>177.625</v>
+      </c>
+      <c r="BA7" s="24"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>2634.70097254335</v>
       </c>
-      <c r="C8" s="24">
-        <v>2629.1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>2598.9</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2602.81</v>
-      </c>
-      <c r="F8" s="24">
-        <v>2592.25</v>
-      </c>
-      <c r="G8" s="24">
-        <v>2624.06</v>
-      </c>
-      <c r="H8" s="24">
-        <v>2609.0300000000002</v>
-      </c>
-      <c r="I8" s="24">
-        <v>2647.42</v>
-      </c>
-      <c r="J8" s="24">
-        <v>2625.89</v>
-      </c>
-      <c r="K8" s="24">
+      <c r="C8" s="23">
+        <v>2586.77</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2593.29</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2586.77</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2612.23</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2626.04</v>
+      </c>
+      <c r="H8" s="23">
         <v>2591.81</v>
       </c>
-      <c r="L8" s="24">
-        <v>2602.81</v>
-      </c>
-      <c r="N8" s="22" t="s">
+      <c r="I8" s="23">
+        <v>2586.77</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2600.87</v>
+      </c>
+      <c r="K8" s="23">
+        <v>2587.81</v>
+      </c>
+      <c r="L8" s="23">
+        <v>2591.81</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="24">
-        <v>409.09300000000002</v>
-      </c>
-      <c r="P8" s="24">
-        <v>412.81299999999999</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>412</v>
-      </c>
-      <c r="R8" s="24">
-        <v>412.46800000000002</v>
-      </c>
-      <c r="S8" s="24">
-        <v>415.46899999999999</v>
-      </c>
-      <c r="T8" s="24">
-        <v>412.48399999999998</v>
-      </c>
-      <c r="U8" s="24">
-        <v>417.68799999999999</v>
-      </c>
-      <c r="V8" s="24">
-        <v>421.07799999999997</v>
-      </c>
-      <c r="W8" s="24">
-        <v>414.09399999999999</v>
-      </c>
-      <c r="X8" s="24">
-        <v>409.23500000000001</v>
-      </c>
-      <c r="BA8" s="26"/>
+      <c r="O8" s="23">
+        <v>427.59399999999999</v>
+      </c>
+      <c r="P8" s="23">
+        <v>437.57900000000001</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>420.75</v>
+      </c>
+      <c r="R8" s="23">
+        <v>417.26600000000002</v>
+      </c>
+      <c r="S8" s="23">
+        <v>413.233</v>
+      </c>
+      <c r="T8" s="23">
+        <v>417.73399999999998</v>
+      </c>
+      <c r="U8" s="23">
+        <v>415.25</v>
+      </c>
+      <c r="V8" s="23">
+        <v>421.51499999999999</v>
+      </c>
+      <c r="W8" s="23">
+        <v>424.25</v>
+      </c>
+      <c r="X8" s="23">
+        <v>417.90600000000001</v>
+      </c>
+      <c r="BA8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3012,55 +3010,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="6" customWidth="1"/>
-    <col min="3" max="6" width="10.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="46"/>
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3070,10 +3068,10 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="4">
@@ -3083,32 +3081,26 @@
         <f>MAX(100, B4) * 50</f>
         <v>5000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
         <v>-2.5287203971897654E-3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>-1.3754471368573329E-3</v>
-      </c>
-      <c r="F4" s="7">
+        <v>-1.9520837670233826E-3</v>
+      </c>
+      <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
         <v>-6.0659829663556319E-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>7.233200000000001</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
+        <v>7.5513999999999983</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="4">
@@ -3118,32 +3110,26 @@
         <f t="shared" ref="C5:C8" si="0">MAX(100, B5) * 50</f>
         <v>5050</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>2.0717011128775775E-2</v>
-      </c>
-      <c r="E5" s="7">
+        <v>1.7825119236883902E-2</v>
+      </c>
+      <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>2.6472813990461086E-2</v>
-      </c>
-      <c r="F5" s="7">
+        <v>2.024531001589791E-2</v>
+      </c>
+      <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.6434022257551657E-2</v>
-      </c>
-      <c r="G5" s="8">
+        <v>2.1376788553259196E-2</v>
+      </c>
+      <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>27.482900000000001</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+        <v>27.064100000000003</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="4">
@@ -3153,32 +3139,26 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>3.7224264705881804E-3</v>
-      </c>
-      <c r="E6" s="7">
+        <v>3.1801470588235237E-3</v>
+      </c>
+      <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>6.3684129901959707E-3</v>
-      </c>
-      <c r="F6" s="7">
+        <v>4.6659007352942705E-3</v>
+      </c>
+      <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>9.4975490196078649E-3</v>
-      </c>
-      <c r="G6" s="8">
+        <v>6.5747549019607998E-3</v>
+      </c>
+      <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>80.639100000000013</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+        <v>83.924900000000008</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="4">
@@ -3188,32 +3168,26 @@
         <f t="shared" si="0"/>
         <v>9900</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-1.5525982256020532E-3</v>
-      </c>
-      <c r="E7" s="7">
+        <v>-1.0139416983523386E-4</v>
+      </c>
+      <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>4.6261089987398307E-5</v>
-      </c>
-      <c r="F7" s="7">
+        <v>4.3599493029167213E-4</v>
+      </c>
+      <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>9.8859315589350238E-4</v>
-      </c>
-      <c r="G7" s="8">
+        <v>1.5589353612166512E-3</v>
+      </c>
+      <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>172.28759999999997</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
+        <v>176.55339999999998</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="4">
@@ -3223,101 +3197,55 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-1.6279256352171978E-2</v>
-      </c>
-      <c r="E8" s="7">
+        <v>-1.8192186909575914E-2</v>
+      </c>
+      <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-8.4612913479246155E-3</v>
-      </c>
-      <c r="F8" s="7">
+        <v>-1.4530670820830704E-2</v>
+      </c>
+      <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.8275032306122068E-3</v>
-      </c>
-      <c r="G8" s="8">
+        <v>-3.2872696498036369E-3</v>
+      </c>
+      <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>413.64219999999995</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="25"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="25"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="25"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="25"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="25"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="25"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="25"/>
-      <c r="M22" s="8"/>
+        <v>421.30770000000001</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802ED21-6007-43C9-9250-2137CB1D309C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA8512-D758-45A3-AC4B-79302A795E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -72,16 +72,10 @@
     <t>OS</t>
   </si>
   <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
     <t>VSCode</t>
-  </si>
-  <si>
-    <t>1.70.1</t>
   </si>
   <si>
     <t>Environment</t>
@@ -284,9 +278,6 @@
     <t>            m   =   100x                    ,</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
-  </si>
-  <si>
     <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
   </si>
   <si>
@@ -324,6 +315,15 @@
   </si>
   <si>
     <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>1.84.2</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V275"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1081,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -1113,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1165,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1174,32 +1174,32 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="17"/>
       <c r="K19" s="1"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1260,14 +1260,14 @@
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1276,14 +1276,14 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1291,14 +1291,14 @@
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1311,14 +1311,14 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1327,14 +1327,14 @@
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1443,14 +1443,14 @@
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1620,14 +1620,14 @@
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1692,14 +1692,14 @@
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1709,14 +1709,14 @@
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1729,14 +1729,14 @@
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1744,14 +1744,14 @@
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1759,14 +1759,14 @@
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1774,14 +1774,14 @@
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1789,14 +1789,14 @@
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1804,14 +1804,14 @@
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1819,14 +1819,14 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1834,42 +1834,42 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1877,14 +1877,14 @@
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2488,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2506,7 +2506,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2520,7 +2520,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
       <c r="N1" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
@@ -2575,7 +2575,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="22">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="22">
         <v>1509</v>
@@ -2606,7 +2606,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="22">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q3" s="22">
         <v>1509</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="26">
         <f>10628*SQRT(10)</f>
@@ -2672,7 +2672,7 @@
         <v>33588.300000000003</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O4" s="23">
         <v>8.64</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="27">
         <v>629</v>
@@ -2744,7 +2744,7 @@
         <v>642.44600000000003</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O5" s="23">
         <v>27.593</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="26">
         <v>6528</v>
@@ -2789,7 +2789,7 @@
         <v>6558.92</v>
       </c>
       <c r="D6" s="23">
-        <v>6558.92</v>
+        <v>6594.63</v>
       </c>
       <c r="E6" s="23">
         <v>6552.3</v>
@@ -2816,7 +2816,7 @@
         <v>6558.92</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O6" s="23">
         <v>83.108999999999995</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="26">
         <v>15780</v>
@@ -2861,7 +2861,7 @@
         <v>15784.7</v>
       </c>
       <c r="D7" s="23">
-        <v>15781.9</v>
+        <v>15755.5</v>
       </c>
       <c r="E7" s="23">
         <v>15778.4</v>
@@ -2888,7 +2888,7 @@
         <v>15804.2</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O7" s="23">
         <v>180</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="26">
         <v>2634.70097254335</v>
@@ -2933,7 +2933,7 @@
         <v>2586.77</v>
       </c>
       <c r="D8" s="23">
-        <v>2593.29</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="23">
         <v>2586.77</v>
@@ -2960,7 +2960,7 @@
         <v>2591.81</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O8" s="23">
         <v>427.59399999999999</v>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3027,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>1</v>
@@ -3052,7 +3052,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="41"/>
       <c r="G2" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
@@ -3060,19 +3060,19 @@
       <c r="B3" s="37"/>
       <c r="C3" s="44"/>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4">
         <v>48</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4">
         <v>101</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4">
         <v>150</v>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>4.6659007352942705E-3</v>
+        <v>5.2129289215687713E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>6.5747549019607998E-3</v>
+        <v>1.0206801470588278E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4">
         <v>198</v>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-1.0139416983523386E-4</v>
+        <v>-1.5525982256020532E-3</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>4.3599493029167213E-4</v>
+        <v>2.6869455006339749E-4</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
         <v>280</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.4530670820830704E-2</v>
+        <v>-1.4275992962890505E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA8512-D758-45A3-AC4B-79302A795E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEC6CF-635C-4A4F-BDC0-001E569C12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2489,7 +2489,7 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2675,34 +2675,34 @@
         <v>86</v>
       </c>
       <c r="O4" s="23">
-        <v>8.64</v>
+        <v>7.391</v>
       </c>
       <c r="P4" s="23">
-        <v>7.6870000000000003</v>
+        <v>7.2190000000000003</v>
       </c>
       <c r="Q4" s="23">
-        <v>7.4059999999999997</v>
+        <v>7.2030000000000003</v>
       </c>
       <c r="R4" s="23">
-        <v>7.359</v>
+        <v>7.1710000000000003</v>
       </c>
       <c r="S4" s="23">
-        <v>7.3760000000000003</v>
+        <v>7.14</v>
       </c>
       <c r="T4" s="23">
-        <v>7.375</v>
+        <v>7.1719999999999997</v>
       </c>
       <c r="U4" s="23">
-        <v>7.4219999999999997</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="V4" s="23">
-        <v>7.4219999999999997</v>
+        <v>7.1719999999999997</v>
       </c>
       <c r="W4" s="23">
-        <v>7.4050000000000002</v>
+        <v>7.0629999999999997</v>
       </c>
       <c r="X4" s="23">
-        <v>7.4219999999999997</v>
+        <v>7.093</v>
       </c>
       <c r="BA4" s="24"/>
     </row>
@@ -2747,34 +2747,34 @@
         <v>87</v>
       </c>
       <c r="O5" s="23">
-        <v>27.593</v>
+        <v>26.501000000000001</v>
       </c>
       <c r="P5" s="23">
-        <v>27.375</v>
+        <v>26.454000000000001</v>
       </c>
       <c r="Q5" s="23">
-        <v>26.734999999999999</v>
+        <v>25.86</v>
       </c>
       <c r="R5" s="23">
-        <v>27.297000000000001</v>
+        <v>26.436</v>
       </c>
       <c r="S5" s="23">
-        <v>26.782</v>
+        <v>25.984999999999999</v>
       </c>
       <c r="T5" s="23">
-        <v>26.937999999999999</v>
+        <v>26.030999999999999</v>
       </c>
       <c r="U5" s="23">
-        <v>27.484000000000002</v>
+        <v>26.562000000000001</v>
       </c>
       <c r="V5" s="23">
-        <v>26.875</v>
+        <v>25.969000000000001</v>
       </c>
       <c r="W5" s="23">
-        <v>26.952999999999999</v>
+        <v>26.062000000000001</v>
       </c>
       <c r="X5" s="23">
-        <v>26.609000000000002</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="BA5" s="24"/>
     </row>
@@ -2819,34 +2819,34 @@
         <v>88</v>
       </c>
       <c r="O6" s="23">
-        <v>83.108999999999995</v>
+        <v>78.921999999999997</v>
       </c>
       <c r="P6" s="23">
-        <v>84.781000000000006</v>
+        <v>78.626000000000005</v>
       </c>
       <c r="Q6" s="23">
-        <v>83.093999999999994</v>
+        <v>78.953000000000003</v>
       </c>
       <c r="R6" s="23">
-        <v>83.811999999999998</v>
+        <v>79.484999999999999</v>
       </c>
       <c r="S6" s="23">
-        <v>83.936999999999998</v>
+        <v>80.108999999999995</v>
       </c>
       <c r="T6" s="23">
-        <v>84.563000000000002</v>
+        <v>80.796999999999997</v>
       </c>
       <c r="U6" s="23">
-        <v>83.875</v>
+        <v>80.061999999999998</v>
       </c>
       <c r="V6" s="23">
-        <v>83.093999999999994</v>
+        <v>79.186999999999998</v>
       </c>
       <c r="W6" s="23">
-        <v>84.703000000000003</v>
+        <v>80.61</v>
       </c>
       <c r="X6" s="23">
-        <v>84.281000000000006</v>
+        <v>79.656000000000006</v>
       </c>
       <c r="BA6" s="24"/>
     </row>
@@ -2891,34 +2891,34 @@
         <v>89</v>
       </c>
       <c r="O7" s="23">
-        <v>180</v>
+        <v>168.06200000000001</v>
       </c>
       <c r="P7" s="23">
-        <v>176.34399999999999</v>
+        <v>166.78200000000001</v>
       </c>
       <c r="Q7" s="23">
-        <v>177.93799999999999</v>
+        <v>170.31299999999999</v>
       </c>
       <c r="R7" s="23">
-        <v>175.71899999999999</v>
+        <v>169.90600000000001</v>
       </c>
       <c r="S7" s="23">
-        <v>174.501</v>
+        <v>167.90700000000001</v>
       </c>
       <c r="T7" s="23">
-        <v>174.15700000000001</v>
+        <v>166.703</v>
       </c>
       <c r="U7" s="23">
-        <v>176.85900000000001</v>
+        <v>167.92099999999999</v>
       </c>
       <c r="V7" s="23">
-        <v>175.43700000000001</v>
+        <v>166.36</v>
       </c>
       <c r="W7" s="23">
-        <v>176.95400000000001</v>
+        <v>166.375</v>
       </c>
       <c r="X7" s="23">
-        <v>177.625</v>
+        <v>168.23500000000001</v>
       </c>
       <c r="BA7" s="24"/>
     </row>
@@ -2933,7 +2933,7 @@
         <v>2586.77</v>
       </c>
       <c r="D8" s="23">
-        <v>2600</v>
+        <v>2600.87</v>
       </c>
       <c r="E8" s="23">
         <v>2586.77</v>
@@ -2963,34 +2963,34 @@
         <v>90</v>
       </c>
       <c r="O8" s="23">
-        <v>427.59399999999999</v>
+        <v>396.65600000000001</v>
       </c>
       <c r="P8" s="23">
-        <v>437.57900000000001</v>
+        <v>400.29700000000003</v>
       </c>
       <c r="Q8" s="23">
-        <v>420.75</v>
+        <v>393.76600000000002</v>
       </c>
       <c r="R8" s="23">
-        <v>417.26600000000002</v>
+        <v>392.09300000000002</v>
       </c>
       <c r="S8" s="23">
-        <v>413.233</v>
+        <v>389.00099999999998</v>
       </c>
       <c r="T8" s="23">
-        <v>417.73399999999998</v>
+        <v>394.73399999999998</v>
       </c>
       <c r="U8" s="23">
-        <v>415.25</v>
+        <v>391.06299999999999</v>
       </c>
       <c r="V8" s="23">
-        <v>421.51499999999999</v>
+        <v>396.34399999999999</v>
       </c>
       <c r="W8" s="23">
-        <v>424.25</v>
+        <v>396.29700000000003</v>
       </c>
       <c r="X8" s="23">
-        <v>417.90600000000001</v>
+        <v>391.798</v>
       </c>
       <c r="BA8" s="24"/>
     </row>
@@ -3010,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3025,7 +3025,7 @@
     <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>91</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="37"/>
       <c r="C3" s="44"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>86</v>
       </c>
@@ -3095,11 +3095,10 @@
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>7.5513999999999983</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.177999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>87</v>
       </c>
@@ -3124,11 +3123,10 @@
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>27.064100000000003</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>26.178200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
         <v>88</v>
       </c>
@@ -3153,11 +3151,10 @@
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>83.924900000000008</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>79.640699999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>89</v>
       </c>
@@ -3182,11 +3179,10 @@
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>176.55339999999998</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>167.85640000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>90</v>
       </c>
@@ -3203,7 +3199,7 @@
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.4275992962890505E-2</v>
+        <v>-1.4242972137792465E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
@@ -3211,42 +3207,11 @@
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>421.30770000000001</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H22" s="6"/>
-    </row>
+        <v>394.20490000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:G1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEC6CF-635C-4A4F-BDC0-001E569C12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0EC502-44A4-4F5E-91F2-782E2CAA589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Instance</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>16.0 GB</t>
-  </si>
-  <si>
-    <t>Traveling Salesman Problem (TSP) Benchmarking</t>
   </si>
   <si>
     <t>                        :randomnode!        ,</t>
@@ -333,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,13 +384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="JuliaMono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="JuliaMono"/>
       <family val="3"/>
@@ -414,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -451,21 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -486,19 +461,6 @@
       <top/>
       <bottom style="thin">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,35 +622,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,10 +647,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +662,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,27 +671,36 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,34 +709,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,246 +1008,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:V275"/>
+  <dimension ref="A1:V273"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="10" customWidth="1"/>
-    <col min="2" max="11" width="9.1796875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B11" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="20" t="s">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="17"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="28"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1311,52 +1269,64 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1371,7 +1341,7 @@
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1395,16 +1365,19 @@
     </row>
     <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1419,7 +1392,7 @@
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1429,6 +1402,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1443,15 +1417,13 @@
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1470,7 +1442,7 @@
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1495,7 +1467,7 @@
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1520,7 +1492,7 @@
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1545,7 +1517,7 @@
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1570,32 +1542,23 @@
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1606,29 +1569,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1636,7 +1586,7 @@
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1650,7 +1600,7 @@
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1663,821 +1613,793 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
+      <c r="A40" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
+      <c r="A41" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
-        <v>35</v>
+      <c r="A42" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
-        <v>36</v>
+      <c r="A43" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>37</v>
+      <c r="A44" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
-        <v>40</v>
+      <c r="A45" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
-        <v>41</v>
+      <c r="A46" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
-        <v>42</v>
+      <c r="A47" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
-        <v>43</v>
+      <c r="A48" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
-        <v>74</v>
+      <c r="A49" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
-        <v>38</v>
+      <c r="A50" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
-        <v>39</v>
+      <c r="A51" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
-        <v>71</v>
+      <c r="A52" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="A53" s="15"/>
+      <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="A54" s="15"/>
+      <c r="J54" s="14"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="20"/>
+      <c r="A55" s="15"/>
+      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="20"/>
-      <c r="J56" s="19"/>
+      <c r="A56" s="1"/>
+      <c r="J56" s="14"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20"/>
+      <c r="A57" s="1"/>
+      <c r="J57" s="14"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="J58" s="19"/>
+      <c r="J58" s="14"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="J59" s="19"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="J60" s="19"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J61" s="19"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J63" s="19"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J64" s="19"/>
-    </row>
-    <row r="65" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J65" s="19"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="12"/>
     </row>
     <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="17"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="17"/>
+      <c r="B99" s="12"/>
     </row>
     <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="17"/>
+      <c r="B100" s="12"/>
     </row>
     <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="17"/>
+      <c r="B101" s="12"/>
     </row>
     <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="17"/>
+      <c r="B102" s="12"/>
     </row>
     <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="17"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="17"/>
+      <c r="B104" s="12"/>
     </row>
     <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="17"/>
+      <c r="B105" s="12"/>
     </row>
     <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="17"/>
+      <c r="B106" s="12"/>
     </row>
     <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="17"/>
+      <c r="B107" s="12"/>
     </row>
     <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="17"/>
+      <c r="B108" s="12"/>
     </row>
     <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="17"/>
+      <c r="B109" s="12"/>
     </row>
     <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="17"/>
+      <c r="B110" s="12"/>
     </row>
     <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="17"/>
+      <c r="B111" s="12"/>
     </row>
     <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="17"/>
+      <c r="B112" s="12"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="17"/>
+      <c r="B113" s="12"/>
     </row>
     <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="17"/>
+      <c r="B114" s="12"/>
     </row>
     <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="17"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="17"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="17"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="17"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="17"/>
+      <c r="B119" s="12"/>
     </row>
     <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="17"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="17"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="17"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="17"/>
+      <c r="B123" s="12"/>
     </row>
     <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="17"/>
+      <c r="B124" s="12"/>
     </row>
     <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="17"/>
+      <c r="B125" s="12"/>
     </row>
     <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="17"/>
+      <c r="B126" s="12"/>
     </row>
     <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="17"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="17"/>
+      <c r="B128" s="12"/>
     </row>
     <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="17"/>
+      <c r="B129" s="12"/>
     </row>
     <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="17"/>
+      <c r="B130" s="12"/>
     </row>
     <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="17"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="17"/>
+      <c r="B132" s="12"/>
     </row>
     <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="17"/>
+      <c r="B133" s="12"/>
     </row>
     <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="17"/>
+      <c r="B134" s="12"/>
     </row>
     <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="17"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="17"/>
+      <c r="B136" s="12"/>
     </row>
     <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="17"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="17"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="17"/>
+      <c r="B139" s="12"/>
     </row>
     <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="17"/>
+      <c r="B140" s="12"/>
     </row>
     <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="17"/>
+      <c r="B141" s="12"/>
     </row>
     <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="17"/>
+      <c r="B142" s="12"/>
     </row>
     <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="17"/>
+      <c r="B143" s="12"/>
     </row>
     <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="17"/>
+      <c r="B144" s="12"/>
     </row>
     <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="17"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="17"/>
+      <c r="B146" s="12"/>
     </row>
     <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="17"/>
+      <c r="B147" s="12"/>
     </row>
     <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="17"/>
+      <c r="B148" s="12"/>
     </row>
     <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="17"/>
+      <c r="B149" s="12"/>
     </row>
     <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="17"/>
+      <c r="B150" s="12"/>
     </row>
     <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="17"/>
+      <c r="B151" s="12"/>
     </row>
     <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="17"/>
+      <c r="B152" s="12"/>
     </row>
     <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="17"/>
+      <c r="B153" s="12"/>
     </row>
     <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="17"/>
+      <c r="B154" s="12"/>
     </row>
     <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="17"/>
+      <c r="B155" s="12"/>
     </row>
     <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="17"/>
+      <c r="B156" s="12"/>
     </row>
     <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="17"/>
+      <c r="B157" s="12"/>
     </row>
     <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="17"/>
+      <c r="B158" s="12"/>
     </row>
     <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="17"/>
+      <c r="B159" s="12"/>
     </row>
     <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="17"/>
+      <c r="B160" s="12"/>
     </row>
     <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="17"/>
+      <c r="B161" s="12"/>
     </row>
     <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="17"/>
+      <c r="B162" s="12"/>
     </row>
     <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="17"/>
+      <c r="B163" s="12"/>
     </row>
     <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="17"/>
+      <c r="B164" s="12"/>
     </row>
     <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="17"/>
+      <c r="B165" s="12"/>
     </row>
     <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="17"/>
+      <c r="B166" s="12"/>
     </row>
     <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="17"/>
+      <c r="B167" s="12"/>
     </row>
     <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="17"/>
+      <c r="B168" s="12"/>
     </row>
     <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="17"/>
+      <c r="B169" s="12"/>
     </row>
     <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="17"/>
+      <c r="B170" s="12"/>
     </row>
     <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="17"/>
+      <c r="B171" s="12"/>
     </row>
     <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="17"/>
+      <c r="B172" s="12"/>
     </row>
     <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="17"/>
+      <c r="B173" s="12"/>
     </row>
     <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="17"/>
+      <c r="B174" s="12"/>
     </row>
     <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="17"/>
+      <c r="B175" s="12"/>
     </row>
     <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="17"/>
+      <c r="B176" s="12"/>
     </row>
     <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="17"/>
+      <c r="B177" s="12"/>
     </row>
     <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="17"/>
+      <c r="B178" s="12"/>
     </row>
     <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="17"/>
+      <c r="B179" s="12"/>
     </row>
     <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="17"/>
+      <c r="B180" s="12"/>
     </row>
     <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="17"/>
+      <c r="B181" s="12"/>
     </row>
     <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="17"/>
+      <c r="B182" s="12"/>
     </row>
     <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="17"/>
+      <c r="B183" s="12"/>
     </row>
     <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="17"/>
+      <c r="B184" s="12"/>
     </row>
     <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="17"/>
+      <c r="B185" s="12"/>
     </row>
     <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="17"/>
+      <c r="B186" s="12"/>
     </row>
     <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="17"/>
+      <c r="B187" s="12"/>
     </row>
     <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="17"/>
+      <c r="B188" s="12"/>
     </row>
     <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="17"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="17"/>
+      <c r="B190" s="12"/>
     </row>
     <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="17"/>
+      <c r="B191" s="12"/>
     </row>
     <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="17"/>
+      <c r="B192" s="12"/>
     </row>
     <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="17"/>
+      <c r="B193" s="12"/>
     </row>
     <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="17"/>
+      <c r="B194" s="12"/>
     </row>
     <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="17"/>
+      <c r="B195" s="12"/>
     </row>
     <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="17"/>
+      <c r="B196" s="12"/>
     </row>
     <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="17"/>
+      <c r="B197" s="12"/>
     </row>
     <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="17"/>
+      <c r="B198" s="12"/>
     </row>
     <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="17"/>
+      <c r="B199" s="12"/>
     </row>
     <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="17"/>
+      <c r="B200" s="12"/>
     </row>
     <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="17"/>
+      <c r="B201" s="12"/>
     </row>
     <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="17"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="17"/>
+      <c r="B203" s="12"/>
     </row>
     <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="17"/>
+      <c r="B204" s="12"/>
     </row>
     <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="17"/>
+      <c r="B205" s="12"/>
     </row>
     <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="17"/>
+      <c r="B206" s="12"/>
     </row>
     <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="17"/>
+      <c r="B207" s="12"/>
     </row>
     <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="17"/>
+      <c r="B208" s="12"/>
     </row>
     <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="17"/>
+      <c r="B209" s="12"/>
     </row>
     <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="17"/>
+      <c r="B210" s="12"/>
     </row>
     <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="17"/>
+      <c r="B211" s="12"/>
     </row>
     <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="17"/>
+      <c r="B212" s="12"/>
     </row>
     <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="17"/>
+      <c r="B213" s="12"/>
     </row>
     <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="17"/>
+      <c r="B214" s="12"/>
     </row>
     <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="17"/>
+      <c r="B215" s="12"/>
     </row>
     <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="17"/>
+      <c r="B216" s="12"/>
     </row>
     <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="17"/>
+      <c r="B217" s="12"/>
     </row>
     <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="17"/>
+      <c r="B218" s="12"/>
     </row>
     <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="17"/>
+      <c r="B219" s="12"/>
     </row>
     <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="17"/>
+      <c r="B220" s="12"/>
     </row>
     <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="17"/>
+      <c r="B221" s="12"/>
     </row>
     <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="17"/>
+      <c r="B222" s="12"/>
     </row>
     <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="17"/>
+      <c r="B223" s="12"/>
     </row>
     <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="17"/>
+      <c r="B224" s="12"/>
     </row>
     <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="17"/>
+      <c r="B225" s="12"/>
     </row>
     <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="17"/>
+      <c r="B226" s="12"/>
     </row>
     <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="17"/>
+      <c r="B227" s="12"/>
     </row>
     <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="17"/>
+      <c r="B228" s="12"/>
     </row>
     <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="17"/>
+      <c r="B229" s="12"/>
     </row>
     <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="17"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="17"/>
+      <c r="B231" s="12"/>
     </row>
     <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="17"/>
+      <c r="B232" s="12"/>
     </row>
     <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="17"/>
+      <c r="B233" s="12"/>
     </row>
     <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="17"/>
+      <c r="B234" s="12"/>
     </row>
     <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="17"/>
+      <c r="B235" s="12"/>
     </row>
     <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="17"/>
+      <c r="B236" s="12"/>
     </row>
     <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="17"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="17"/>
+      <c r="B238" s="12"/>
     </row>
     <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="17"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="17"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="17"/>
+      <c r="B241" s="12"/>
     </row>
     <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="17"/>
+      <c r="B242" s="12"/>
     </row>
     <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="17"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="17"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="17"/>
+      <c r="B245" s="12"/>
     </row>
     <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="17"/>
+      <c r="B246" s="12"/>
     </row>
     <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="17"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="17"/>
+      <c r="B248" s="12"/>
     </row>
     <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="17"/>
+      <c r="B249" s="12"/>
     </row>
     <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="17"/>
+      <c r="B250" s="12"/>
     </row>
     <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="17"/>
+      <c r="B251" s="12"/>
     </row>
     <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="17"/>
+      <c r="B252" s="12"/>
     </row>
     <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="17"/>
+      <c r="B253" s="12"/>
     </row>
     <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="17"/>
+      <c r="B254" s="12"/>
     </row>
     <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="17"/>
+      <c r="B255" s="12"/>
     </row>
     <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="17"/>
+      <c r="B256" s="12"/>
     </row>
     <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="17"/>
+      <c r="B257" s="12"/>
     </row>
     <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="17"/>
+      <c r="B258" s="12"/>
     </row>
     <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="17"/>
+      <c r="B259" s="12"/>
     </row>
     <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="17"/>
+      <c r="B260" s="12"/>
     </row>
     <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="17"/>
+      <c r="B261" s="12"/>
     </row>
     <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="17"/>
+      <c r="B262" s="12"/>
     </row>
     <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="17"/>
+      <c r="B263" s="12"/>
     </row>
     <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="17"/>
+      <c r="B264" s="12"/>
     </row>
     <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="17"/>
+      <c r="B265" s="12"/>
     </row>
     <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="17"/>
+      <c r="B266" s="12"/>
     </row>
     <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="17"/>
+      <c r="B267" s="12"/>
     </row>
     <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="17"/>
+      <c r="B268" s="12"/>
     </row>
     <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="17"/>
+      <c r="B269" s="12"/>
     </row>
     <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="17"/>
+      <c r="B270" s="12"/>
     </row>
     <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="17"/>
+      <c r="B271" s="12"/>
     </row>
     <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="17"/>
+      <c r="B272" s="12"/>
     </row>
     <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="17"/>
-    </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="17"/>
-    </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="17"/>
+      <c r="B273" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2488,511 +2410,511 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.54296875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.54296875" style="21" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="17.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="8.54296875" style="16" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="N2" s="36" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="N2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="32"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="22">
+      <c r="A3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="17">
         <v>1010</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="17">
         <v>1106</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="17">
         <v>1509</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="17">
         <v>1604</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="17">
         <v>1905</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="17">
         <v>2104</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="17">
         <v>2412</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="17">
         <v>2703</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="17">
         <v>2710</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="17">
         <v>2807</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="22">
+      <c r="N3" s="31"/>
+      <c r="O3" s="17">
         <v>1010</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="17">
         <v>1106</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="17">
         <v>1509</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="17">
         <v>1604</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="17">
         <v>1905</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="17">
         <v>2104</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="17">
         <v>2412</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="17">
         <v>2703</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="17">
         <v>2710</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="17">
         <v>2807</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="20">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="18">
         <v>33588.300000000003</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="18">
         <v>33588.300000000003</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="18">
         <v>33588.300000000003</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="18">
+        <v>7.391</v>
+      </c>
+      <c r="P4" s="18">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>7.2030000000000003</v>
+      </c>
+      <c r="R4" s="18">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="S4" s="18">
+        <v>7.14</v>
+      </c>
+      <c r="T4" s="18">
+        <v>7.1719999999999997</v>
+      </c>
+      <c r="U4" s="18">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="V4" s="18">
+        <v>7.1719999999999997</v>
+      </c>
+      <c r="W4" s="18">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="X4" s="18">
+        <v>7.093</v>
+      </c>
+      <c r="BA4" s="19"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="23">
-        <v>7.391</v>
-      </c>
-      <c r="P4" s="23">
-        <v>7.2190000000000003</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>7.2030000000000003</v>
-      </c>
-      <c r="R4" s="23">
-        <v>7.1710000000000003</v>
-      </c>
-      <c r="S4" s="23">
-        <v>7.14</v>
-      </c>
-      <c r="T4" s="23">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="U4" s="23">
-        <v>7.1559999999999997</v>
-      </c>
-      <c r="V4" s="23">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="W4" s="23">
-        <v>7.0629999999999997</v>
-      </c>
-      <c r="X4" s="23">
-        <v>7.093</v>
-      </c>
-      <c r="BA4" s="24"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="21">
+        <v>629</v>
+      </c>
+      <c r="C5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>642.03099999999995</v>
+      </c>
+      <c r="E5" s="18">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="F5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="G5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="H5" s="18">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="I5" s="18">
+        <v>640.21199999999999</v>
+      </c>
+      <c r="J5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="K5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="L5" s="18">
+        <v>642.44600000000003</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="18">
+        <v>26.501000000000001</v>
+      </c>
+      <c r="P5" s="18">
+        <v>26.454000000000001</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>25.86</v>
+      </c>
+      <c r="R5" s="18">
+        <v>26.436</v>
+      </c>
+      <c r="S5" s="18">
+        <v>25.984999999999999</v>
+      </c>
+      <c r="T5" s="18">
+        <v>26.030999999999999</v>
+      </c>
+      <c r="U5" s="18">
+        <v>26.562000000000001</v>
+      </c>
+      <c r="V5" s="18">
+        <v>25.969000000000001</v>
+      </c>
+      <c r="W5" s="18">
+        <v>26.062000000000001</v>
+      </c>
+      <c r="X5" s="18">
+        <v>25.922000000000001</v>
+      </c>
+      <c r="BA5" s="19"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="27">
-        <v>629</v>
-      </c>
-      <c r="C5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="D5" s="23">
-        <v>642.03099999999995</v>
-      </c>
-      <c r="E5" s="23">
-        <v>640.21199999999999</v>
-      </c>
-      <c r="F5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="G5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="H5" s="23">
-        <v>640.21199999999999</v>
-      </c>
-      <c r="I5" s="23">
-        <v>640.21199999999999</v>
-      </c>
-      <c r="J5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="K5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="L5" s="23">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="B6" s="20">
+        <v>6528</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6558.92</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6594.63</v>
+      </c>
+      <c r="E6" s="18">
+        <v>6552.3</v>
+      </c>
+      <c r="F6" s="18">
+        <v>6558.92</v>
+      </c>
+      <c r="G6" s="18">
+        <v>6548.76</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6570.92</v>
+      </c>
+      <c r="I6" s="18">
+        <v>6556.12</v>
+      </c>
+      <c r="J6" s="18">
+        <v>6556.12</v>
+      </c>
+      <c r="K6" s="18">
+        <v>6564.69</v>
+      </c>
+      <c r="L6" s="18">
+        <v>6558.92</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="23">
-        <v>26.501000000000001</v>
-      </c>
-      <c r="P5" s="23">
-        <v>26.454000000000001</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>25.86</v>
-      </c>
-      <c r="R5" s="23">
-        <v>26.436</v>
-      </c>
-      <c r="S5" s="23">
-        <v>25.984999999999999</v>
-      </c>
-      <c r="T5" s="23">
-        <v>26.030999999999999</v>
-      </c>
-      <c r="U5" s="23">
-        <v>26.562000000000001</v>
-      </c>
-      <c r="V5" s="23">
-        <v>25.969000000000001</v>
-      </c>
-      <c r="W5" s="23">
-        <v>26.062000000000001</v>
-      </c>
-      <c r="X5" s="23">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="BA5" s="24"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="O6" s="18">
+        <v>78.921999999999997</v>
+      </c>
+      <c r="P6" s="18">
+        <v>78.626000000000005</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>78.953000000000003</v>
+      </c>
+      <c r="R6" s="18">
+        <v>79.484999999999999</v>
+      </c>
+      <c r="S6" s="18">
+        <v>80.108999999999995</v>
+      </c>
+      <c r="T6" s="18">
+        <v>80.796999999999997</v>
+      </c>
+      <c r="U6" s="18">
+        <v>80.061999999999998</v>
+      </c>
+      <c r="V6" s="18">
+        <v>79.186999999999998</v>
+      </c>
+      <c r="W6" s="18">
+        <v>80.61</v>
+      </c>
+      <c r="X6" s="18">
+        <v>79.656000000000006</v>
+      </c>
+      <c r="BA6" s="19"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="26">
-        <v>6528</v>
-      </c>
-      <c r="C6" s="23">
-        <v>6558.92</v>
-      </c>
-      <c r="D6" s="23">
-        <v>6594.63</v>
-      </c>
-      <c r="E6" s="23">
-        <v>6552.3</v>
-      </c>
-      <c r="F6" s="23">
-        <v>6558.92</v>
-      </c>
-      <c r="G6" s="23">
-        <v>6548.76</v>
-      </c>
-      <c r="H6" s="23">
-        <v>6570.92</v>
-      </c>
-      <c r="I6" s="23">
-        <v>6556.12</v>
-      </c>
-      <c r="J6" s="23">
-        <v>6556.12</v>
-      </c>
-      <c r="K6" s="23">
-        <v>6564.69</v>
-      </c>
-      <c r="L6" s="23">
-        <v>6558.92</v>
-      </c>
-      <c r="N6" s="21" t="s">
+      <c r="B7" s="20">
+        <v>15780</v>
+      </c>
+      <c r="C7" s="18">
+        <v>15784.7</v>
+      </c>
+      <c r="D7" s="18">
+        <v>15755.5</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15778.4</v>
+      </c>
+      <c r="F7" s="18">
+        <v>15786.9</v>
+      </c>
+      <c r="G7" s="18">
+        <v>15784.4</v>
+      </c>
+      <c r="H7" s="18">
+        <v>15804.6</v>
+      </c>
+      <c r="I7" s="18">
+        <v>15786.9</v>
+      </c>
+      <c r="J7" s="18">
+        <v>15778.4</v>
+      </c>
+      <c r="K7" s="18">
+        <v>15778.4</v>
+      </c>
+      <c r="L7" s="18">
+        <v>15804.2</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="23">
-        <v>78.921999999999997</v>
-      </c>
-      <c r="P6" s="23">
-        <v>78.626000000000005</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>78.953000000000003</v>
-      </c>
-      <c r="R6" s="23">
-        <v>79.484999999999999</v>
-      </c>
-      <c r="S6" s="23">
-        <v>80.108999999999995</v>
-      </c>
-      <c r="T6" s="23">
-        <v>80.796999999999997</v>
-      </c>
-      <c r="U6" s="23">
-        <v>80.061999999999998</v>
-      </c>
-      <c r="V6" s="23">
-        <v>79.186999999999998</v>
-      </c>
-      <c r="W6" s="23">
-        <v>80.61</v>
-      </c>
-      <c r="X6" s="23">
-        <v>79.656000000000006</v>
-      </c>
-      <c r="BA6" s="24"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="O7" s="18">
+        <v>168.06200000000001</v>
+      </c>
+      <c r="P7" s="18">
+        <v>166.78200000000001</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>170.31299999999999</v>
+      </c>
+      <c r="R7" s="18">
+        <v>169.90600000000001</v>
+      </c>
+      <c r="S7" s="18">
+        <v>167.90700000000001</v>
+      </c>
+      <c r="T7" s="18">
+        <v>166.703</v>
+      </c>
+      <c r="U7" s="18">
+        <v>167.92099999999999</v>
+      </c>
+      <c r="V7" s="18">
+        <v>166.36</v>
+      </c>
+      <c r="W7" s="18">
+        <v>166.375</v>
+      </c>
+      <c r="X7" s="18">
+        <v>168.23500000000001</v>
+      </c>
+      <c r="BA7" s="19"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="26">
-        <v>15780</v>
-      </c>
-      <c r="C7" s="23">
-        <v>15784.7</v>
-      </c>
-      <c r="D7" s="23">
-        <v>15755.5</v>
-      </c>
-      <c r="E7" s="23">
-        <v>15778.4</v>
-      </c>
-      <c r="F7" s="23">
-        <v>15786.9</v>
-      </c>
-      <c r="G7" s="23">
-        <v>15784.4</v>
-      </c>
-      <c r="H7" s="23">
-        <v>15804.6</v>
-      </c>
-      <c r="I7" s="23">
-        <v>15786.9</v>
-      </c>
-      <c r="J7" s="23">
-        <v>15778.4</v>
-      </c>
-      <c r="K7" s="23">
-        <v>15778.4</v>
-      </c>
-      <c r="L7" s="23">
-        <v>15804.2</v>
-      </c>
-      <c r="N7" s="21" t="s">
+      <c r="B8" s="20">
+        <v>2634.70097254335</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2586.77</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2600.87</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2586.77</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2612.23</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2626.04</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2591.81</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2586.77</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2600.87</v>
+      </c>
+      <c r="K8" s="18">
+        <v>2587.81</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2591.81</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="23">
-        <v>168.06200000000001</v>
-      </c>
-      <c r="P7" s="23">
-        <v>166.78200000000001</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>170.31299999999999</v>
-      </c>
-      <c r="R7" s="23">
-        <v>169.90600000000001</v>
-      </c>
-      <c r="S7" s="23">
-        <v>167.90700000000001</v>
-      </c>
-      <c r="T7" s="23">
-        <v>166.703</v>
-      </c>
-      <c r="U7" s="23">
-        <v>167.92099999999999</v>
-      </c>
-      <c r="V7" s="23">
-        <v>166.36</v>
-      </c>
-      <c r="W7" s="23">
-        <v>166.375</v>
-      </c>
-      <c r="X7" s="23">
-        <v>168.23500000000001</v>
-      </c>
-      <c r="BA7" s="24"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2634.70097254335</v>
-      </c>
-      <c r="C8" s="23">
-        <v>2586.77</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2600.87</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2586.77</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2612.23</v>
-      </c>
-      <c r="G8" s="23">
-        <v>2626.04</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2591.81</v>
-      </c>
-      <c r="I8" s="23">
-        <v>2586.77</v>
-      </c>
-      <c r="J8" s="23">
-        <v>2600.87</v>
-      </c>
-      <c r="K8" s="23">
-        <v>2587.81</v>
-      </c>
-      <c r="L8" s="23">
-        <v>2591.81</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="23">
+      <c r="O8" s="18">
         <v>396.65600000000001</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="18">
         <v>400.29700000000003</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="18">
         <v>393.76600000000002</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="18">
         <v>392.09300000000002</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="18">
         <v>389.00099999999998</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="18">
         <v>394.73399999999998</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="18">
         <v>391.06299999999999</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="18">
         <v>396.34399999999999</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="18">
         <v>396.29700000000003</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="18">
         <v>391.798</v>
       </c>
-      <c r="BA8" s="24"/>
+      <c r="BA8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3012,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3026,39 +2948,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -3068,11 +2990,11 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
-        <v>86</v>
+      <c r="A4" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="4">
         <v>48</v>
@@ -3099,8 +3021,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
-        <v>87</v>
+      <c r="A5" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="4">
         <v>101</v>
@@ -3127,8 +3049,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
-        <v>88</v>
+      <c r="A6" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="4">
         <v>150</v>
@@ -3155,8 +3077,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
-        <v>89</v>
+      <c r="A7" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="4">
         <v>198</v>
@@ -3183,8 +3105,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
-        <v>90</v>
+      <c r="A8" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="4">
         <v>280</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0EC502-44A4-4F5E-91F2-782E2CAA589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD64FE6-820F-4D53-A8E7-226DF82D694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,7 +2411,7 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2711,7 +2711,7 @@
         <v>6558.92</v>
       </c>
       <c r="D6" s="18">
-        <v>6594.63</v>
+        <v>6558.92</v>
       </c>
       <c r="E6" s="18">
         <v>6552.3</v>
@@ -2783,7 +2783,7 @@
         <v>15784.7</v>
       </c>
       <c r="D7" s="18">
-        <v>15755.5</v>
+        <v>15781</v>
       </c>
       <c r="E7" s="18">
         <v>15778.4</v>
@@ -2855,7 +2855,7 @@
         <v>2586.77</v>
       </c>
       <c r="D8" s="18">
-        <v>2600.87</v>
+        <v>2593.29</v>
       </c>
       <c r="E8" s="18">
         <v>2586.77</v>
@@ -3065,11 +3065,11 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>5.2129289215687713E-3</v>
+        <v>4.6659007352942705E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>1.0206801470588278E-2</v>
+        <v>6.5747549019607998E-3</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-1.5525982256020532E-3</v>
+        <v>-1.0139416983523386E-4</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>2.6869455006339749E-4</v>
+        <v>4.3029150823814533E-4</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.4242972137792465E-2</v>
+        <v>-1.4530670820830704E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD64FE6-820F-4D53-A8E7-226DF82D694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D34F0-F2E1-4479-B332-3C3B0334EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>1.9.4</t>
   </si>
   <si>
-    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V273"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2497,7 +2497,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="17">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="17">
         <v>1509</v>
@@ -2528,7 +2528,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="17">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q3" s="17">
         <v>1509</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D34F0-F2E1-4479-B332-3C3B0334EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA9FB1-381A-4C1D-BCC2-0E138389F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>1.9.4</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2411,7 +2411,7 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2497,7 +2497,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="17">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="17">
         <v>1509</v>
@@ -2528,7 +2528,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="17">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q3" s="17">
         <v>1509</v>
@@ -2567,28 +2567,28 @@
         <v>33523.699999999997</v>
       </c>
       <c r="D4" s="18">
+        <v>33588.300000000003</v>
+      </c>
+      <c r="E4" s="18">
+        <v>33588.300000000003</v>
+      </c>
+      <c r="F4" s="18">
+        <v>33588.300000000003</v>
+      </c>
+      <c r="G4" s="18">
         <v>33523.699999999997</v>
       </c>
-      <c r="E4" s="18">
-        <v>33523.699999999997</v>
-      </c>
-      <c r="F4" s="18">
-        <v>33523.699999999997</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="H4" s="18">
         <v>33588.300000000003</v>
       </c>
-      <c r="H4" s="18">
-        <v>33523.699999999997</v>
-      </c>
       <c r="I4" s="18">
-        <v>33523.699999999997</v>
+        <v>33588.300000000003</v>
       </c>
       <c r="J4" s="18">
         <v>33523.699999999997</v>
       </c>
       <c r="K4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="L4" s="18">
         <v>33588.300000000003</v>
@@ -2597,34 +2597,34 @@
         <v>85</v>
       </c>
       <c r="O4" s="18">
-        <v>7.391</v>
+        <v>7.016</v>
       </c>
       <c r="P4" s="18">
-        <v>7.2190000000000003</v>
+        <v>6.89</v>
       </c>
       <c r="Q4" s="18">
-        <v>7.2030000000000003</v>
+        <v>6.766</v>
       </c>
       <c r="R4" s="18">
-        <v>7.1710000000000003</v>
+        <v>6.8760000000000003</v>
       </c>
       <c r="S4" s="18">
-        <v>7.14</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="T4" s="18">
-        <v>7.1719999999999997</v>
+        <v>6.766</v>
       </c>
       <c r="U4" s="18">
-        <v>7.1559999999999997</v>
+        <v>6.7649999999999997</v>
       </c>
       <c r="V4" s="18">
-        <v>7.1719999999999997</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="W4" s="18">
-        <v>7.0629999999999997</v>
+        <v>6.843</v>
       </c>
       <c r="X4" s="18">
-        <v>7.093</v>
+        <v>6.859</v>
       </c>
       <c r="BA4" s="19"/>
     </row>
@@ -2636,31 +2636,31 @@
         <v>629</v>
       </c>
       <c r="C5" s="18">
+        <v>650.98900000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>648.73400000000004</v>
+      </c>
+      <c r="E5" s="18">
         <v>642.44600000000003</v>
       </c>
-      <c r="D5" s="18">
+      <c r="F5" s="18">
+        <v>644.26599999999996</v>
+      </c>
+      <c r="G5" s="18">
         <v>642.03099999999995</v>
       </c>
-      <c r="E5" s="18">
-        <v>640.21199999999999</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="H5" s="18">
+        <v>644.91700000000003</v>
+      </c>
+      <c r="I5" s="18">
         <v>642.44600000000003</v>
       </c>
-      <c r="G5" s="18">
-        <v>642.44600000000003</v>
-      </c>
-      <c r="H5" s="18">
-        <v>640.21199999999999</v>
-      </c>
-      <c r="I5" s="18">
-        <v>640.21199999999999</v>
-      </c>
       <c r="J5" s="18">
-        <v>642.44600000000003</v>
+        <v>644.26599999999996</v>
       </c>
       <c r="K5" s="18">
-        <v>642.44600000000003</v>
+        <v>650.79</v>
       </c>
       <c r="L5" s="18">
         <v>642.44600000000003</v>
@@ -2669,34 +2669,34 @@
         <v>86</v>
       </c>
       <c r="O5" s="18">
-        <v>26.501000000000001</v>
+        <v>25.937000000000001</v>
       </c>
       <c r="P5" s="18">
-        <v>26.454000000000001</v>
+        <v>25.547000000000001</v>
       </c>
       <c r="Q5" s="18">
-        <v>25.86</v>
+        <v>25.61</v>
       </c>
       <c r="R5" s="18">
-        <v>26.436</v>
+        <v>25.593</v>
       </c>
       <c r="S5" s="18">
-        <v>25.984999999999999</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="T5" s="18">
-        <v>26.030999999999999</v>
+        <v>25.640999999999998</v>
       </c>
       <c r="U5" s="18">
-        <v>26.562000000000001</v>
+        <v>25.422000000000001</v>
       </c>
       <c r="V5" s="18">
-        <v>25.969000000000001</v>
+        <v>25.545999999999999</v>
       </c>
       <c r="W5" s="18">
-        <v>26.062000000000001</v>
+        <v>25.515999999999998</v>
       </c>
       <c r="X5" s="18">
-        <v>25.922000000000001</v>
+        <v>25.501000000000001</v>
       </c>
       <c r="BA5" s="19"/>
     </row>
@@ -2708,67 +2708,67 @@
         <v>6528</v>
       </c>
       <c r="C6" s="18">
-        <v>6558.92</v>
+        <v>6565.1</v>
       </c>
       <c r="D6" s="18">
-        <v>6558.92</v>
+        <v>6556.12</v>
       </c>
       <c r="E6" s="18">
+        <v>6570.92</v>
+      </c>
+      <c r="F6" s="18">
+        <v>6590</v>
+      </c>
+      <c r="G6" s="18">
+        <v>6556.12</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6564.73</v>
+      </c>
+      <c r="I6" s="18">
+        <v>6570.92</v>
+      </c>
+      <c r="J6" s="18">
+        <v>6575.78</v>
+      </c>
+      <c r="K6" s="18">
+        <v>6570.92</v>
+      </c>
+      <c r="L6" s="18">
         <v>6552.3</v>
-      </c>
-      <c r="F6" s="18">
-        <v>6558.92</v>
-      </c>
-      <c r="G6" s="18">
-        <v>6548.76</v>
-      </c>
-      <c r="H6" s="18">
-        <v>6570.92</v>
-      </c>
-      <c r="I6" s="18">
-        <v>6556.12</v>
-      </c>
-      <c r="J6" s="18">
-        <v>6556.12</v>
-      </c>
-      <c r="K6" s="18">
-        <v>6564.69</v>
-      </c>
-      <c r="L6" s="18">
-        <v>6558.92</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="18">
-        <v>78.921999999999997</v>
+        <v>78.203000000000003</v>
       </c>
       <c r="P6" s="18">
-        <v>78.626000000000005</v>
+        <v>78.063000000000002</v>
       </c>
       <c r="Q6" s="18">
-        <v>78.953000000000003</v>
+        <v>78.453000000000003</v>
       </c>
       <c r="R6" s="18">
-        <v>79.484999999999999</v>
+        <v>79.593999999999994</v>
       </c>
       <c r="S6" s="18">
-        <v>80.108999999999995</v>
+        <v>80.031000000000006</v>
       </c>
       <c r="T6" s="18">
-        <v>80.796999999999997</v>
+        <v>78.265000000000001</v>
       </c>
       <c r="U6" s="18">
-        <v>80.061999999999998</v>
+        <v>78.891000000000005</v>
       </c>
       <c r="V6" s="18">
-        <v>79.186999999999998</v>
+        <v>80.218999999999994</v>
       </c>
       <c r="W6" s="18">
-        <v>80.61</v>
+        <v>79.125</v>
       </c>
       <c r="X6" s="18">
-        <v>79.656000000000006</v>
+        <v>77.891000000000005</v>
       </c>
       <c r="BA6" s="19"/>
     </row>
@@ -2780,67 +2780,67 @@
         <v>15780</v>
       </c>
       <c r="C7" s="18">
-        <v>15784.7</v>
+        <v>15785</v>
       </c>
       <c r="D7" s="18">
-        <v>15781</v>
+        <v>15780.6</v>
       </c>
       <c r="E7" s="18">
         <v>15778.4</v>
       </c>
       <c r="F7" s="18">
-        <v>15786.9</v>
+        <v>15783.7</v>
       </c>
       <c r="G7" s="18">
-        <v>15784.4</v>
+        <v>15755.5</v>
       </c>
       <c r="H7" s="18">
-        <v>15804.6</v>
+        <v>15783.7</v>
       </c>
       <c r="I7" s="18">
-        <v>15786.9</v>
+        <v>15778.4</v>
       </c>
       <c r="J7" s="18">
-        <v>15778.4</v>
+        <v>15776.9</v>
       </c>
       <c r="K7" s="18">
         <v>15778.4</v>
       </c>
       <c r="L7" s="18">
-        <v>15804.2</v>
+        <v>15795.6</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>88</v>
       </c>
       <c r="O7" s="18">
-        <v>168.06200000000001</v>
+        <v>161.98400000000001</v>
       </c>
       <c r="P7" s="18">
-        <v>166.78200000000001</v>
+        <v>162.96899999999999</v>
       </c>
       <c r="Q7" s="18">
-        <v>170.31299999999999</v>
+        <v>164.93799999999999</v>
       </c>
       <c r="R7" s="18">
-        <v>169.90600000000001</v>
+        <v>165.51499999999999</v>
       </c>
       <c r="S7" s="18">
-        <v>167.90700000000001</v>
+        <v>162.31299999999999</v>
       </c>
       <c r="T7" s="18">
-        <v>166.703</v>
+        <v>164.34399999999999</v>
       </c>
       <c r="U7" s="18">
-        <v>167.92099999999999</v>
+        <v>162.797</v>
       </c>
       <c r="V7" s="18">
-        <v>166.36</v>
+        <v>163.51599999999999</v>
       </c>
       <c r="W7" s="18">
-        <v>166.375</v>
+        <v>162.828</v>
       </c>
       <c r="X7" s="18">
-        <v>168.23500000000001</v>
+        <v>163.672</v>
       </c>
       <c r="BA7" s="19"/>
     </row>
@@ -2852,67 +2852,67 @@
         <v>2634.70097254335</v>
       </c>
       <c r="C8" s="18">
-        <v>2586.77</v>
+        <v>2629.1</v>
       </c>
       <c r="D8" s="18">
-        <v>2593.29</v>
+        <v>2605.1999999999998</v>
       </c>
       <c r="E8" s="18">
-        <v>2586.77</v>
+        <v>2602.81</v>
       </c>
       <c r="F8" s="18">
-        <v>2612.23</v>
+        <v>2592.25</v>
       </c>
       <c r="G8" s="18">
-        <v>2626.04</v>
+        <v>2624.06</v>
       </c>
       <c r="H8" s="18">
+        <v>2609.0300000000002</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2647.42</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2625.89</v>
+      </c>
+      <c r="K8" s="18">
         <v>2591.81</v>
       </c>
-      <c r="I8" s="18">
-        <v>2586.77</v>
-      </c>
-      <c r="J8" s="18">
-        <v>2600.87</v>
-      </c>
-      <c r="K8" s="18">
-        <v>2587.81</v>
-      </c>
       <c r="L8" s="18">
-        <v>2591.81</v>
+        <v>2602.81</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>89</v>
       </c>
       <c r="O8" s="18">
-        <v>396.65600000000001</v>
+        <v>395.392</v>
       </c>
       <c r="P8" s="18">
-        <v>400.29700000000003</v>
+        <v>394.50099999999998</v>
       </c>
       <c r="Q8" s="18">
-        <v>393.76600000000002</v>
+        <v>392.5</v>
       </c>
       <c r="R8" s="18">
-        <v>392.09300000000002</v>
+        <v>392.79599999999999</v>
       </c>
       <c r="S8" s="18">
-        <v>389.00099999999998</v>
+        <v>396.90600000000001</v>
       </c>
       <c r="T8" s="18">
-        <v>394.73399999999998</v>
+        <v>392.42200000000003</v>
       </c>
       <c r="U8" s="18">
-        <v>391.06299999999999</v>
+        <v>397.15699999999998</v>
       </c>
       <c r="V8" s="18">
-        <v>396.34399999999999</v>
+        <v>395.20299999999997</v>
       </c>
       <c r="W8" s="18">
-        <v>396.29700000000003</v>
+        <v>394.702</v>
       </c>
       <c r="X8" s="18">
-        <v>391.798</v>
+        <v>391.56200000000001</v>
       </c>
       <c r="BA8" s="19"/>
     </row>
@@ -2934,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>-1.9520837670233826E-3</v>
+        <v>-1.3754471368573329E-3</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>7.177999999999999</v>
+        <v>6.8407</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3033,19 +3033,19 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>1.7825119236883902E-2</v>
+        <v>2.0717011128775775E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>2.024531001589791E-2</v>
+        <v>2.5966772655007908E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>2.1376788553259196E-2</v>
+        <v>3.4958664546899998E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>26.178200000000004</v>
+        <v>25.623499999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3061,19 +3061,19 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>3.1801470588235237E-3</v>
+        <v>3.7224264705881804E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>4.6659007352942705E-3</v>
+        <v>6.0188419117648273E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>6.5747549019607998E-3</v>
+        <v>9.4975490196078649E-3</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>79.640699999999995</v>
+        <v>78.873500000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3089,19 +3089,19 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-1.0139416983523386E-4</v>
+        <v>-1.5525982256020532E-3</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>4.3029150823814533E-4</v>
+        <v>-2.4081115335916614E-5</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>1.5589353612166512E-3</v>
+        <v>9.8859315589350238E-4</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>167.85640000000004</v>
+        <v>163.48759999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -3117,19 +3117,19 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-1.8192186909575914E-2</v>
+        <v>-1.6279256352171978E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.4530670820830704E-2</v>
+        <v>-8.22217502824929E-3</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>-3.2872696498036369E-3</v>
+        <v>4.8275032306122068E-3</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>394.20490000000001</v>
+        <v>394.31409999999994</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA9FB1-381A-4C1D-BCC2-0E138389F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFEBC1-B02E-4457-A84E-613175B72C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -330,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,13 +387,6 @@
       <sz val="9"/>
       <name val="JuliaMono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -622,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,8 +664,6 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1225,7 +1216,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1245,7 +1236,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -2410,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2427,72 +2418,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="N2" s="30" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="17">
         <v>1010</v>
       </c>
@@ -2523,7 +2514,7 @@
       <c r="L3" s="17">
         <v>2807</v>
       </c>
-      <c r="N3" s="31"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="17">
         <v>1010</v>
       </c>
@@ -2555,11 +2546,11 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <f>10628*SQRT(10)</f>
         <v>33608.686972269541</v>
       </c>
@@ -2567,22 +2558,22 @@
         <v>33523.699999999997</v>
       </c>
       <c r="D4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="E4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="F4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="G4" s="18">
         <v>33523.699999999997</v>
       </c>
       <c r="H4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="I4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="J4" s="18">
         <v>33523.699999999997</v>
@@ -2591,7 +2582,7 @@
         <v>33523.699999999997</v>
       </c>
       <c r="L4" s="18">
-        <v>33588.300000000003</v>
+        <v>33523.699999999997</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>85</v>
@@ -2600,67 +2591,67 @@
         <v>7.016</v>
       </c>
       <c r="P4" s="18">
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>6.875</v>
+      </c>
+      <c r="R4" s="18">
+        <v>6.859</v>
+      </c>
+      <c r="S4" s="18">
         <v>6.89</v>
       </c>
-      <c r="Q4" s="18">
-        <v>6.766</v>
-      </c>
-      <c r="R4" s="18">
-        <v>6.8760000000000003</v>
-      </c>
-      <c r="S4" s="18">
+      <c r="T4" s="18">
+        <v>6.9059999999999997</v>
+      </c>
+      <c r="U4" s="18">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="V4" s="18">
+        <v>6.875</v>
+      </c>
+      <c r="W4" s="18">
         <v>6.8129999999999997</v>
-      </c>
-      <c r="T4" s="18">
-        <v>6.766</v>
-      </c>
-      <c r="U4" s="18">
-        <v>6.7649999999999997</v>
-      </c>
-      <c r="V4" s="18">
-        <v>6.8129999999999997</v>
-      </c>
-      <c r="W4" s="18">
-        <v>6.843</v>
       </c>
       <c r="X4" s="18">
         <v>6.859</v>
       </c>
       <c r="BA4" s="19"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>629</v>
       </c>
       <c r="C5" s="18">
-        <v>650.98900000000003</v>
+        <v>649.68100000000004</v>
       </c>
       <c r="D5" s="18">
-        <v>648.73400000000004</v>
+        <v>642.44600000000003</v>
       </c>
       <c r="E5" s="18">
+        <v>642.53200000000004</v>
+      </c>
+      <c r="F5" s="18">
         <v>642.44600000000003</v>
       </c>
-      <c r="F5" s="18">
-        <v>644.26599999999996</v>
-      </c>
       <c r="G5" s="18">
-        <v>642.03099999999995</v>
+        <v>645.16800000000001</v>
       </c>
       <c r="H5" s="18">
-        <v>644.91700000000003</v>
+        <v>642.53200000000004</v>
       </c>
       <c r="I5" s="18">
         <v>642.44600000000003</v>
       </c>
       <c r="J5" s="18">
-        <v>644.26599999999996</v>
+        <v>649.47500000000002</v>
       </c>
       <c r="K5" s="18">
-        <v>650.79</v>
+        <v>642.53200000000004</v>
       </c>
       <c r="L5" s="18">
         <v>642.44600000000003</v>
@@ -2669,250 +2660,250 @@
         <v>86</v>
       </c>
       <c r="O5" s="18">
-        <v>25.937000000000001</v>
+        <v>25.562999999999999</v>
       </c>
       <c r="P5" s="18">
-        <v>25.547000000000001</v>
+        <v>25.75</v>
       </c>
       <c r="Q5" s="18">
-        <v>25.61</v>
+        <v>25.375</v>
       </c>
       <c r="R5" s="18">
-        <v>25.593</v>
+        <v>25.312000000000001</v>
       </c>
       <c r="S5" s="18">
-        <v>25.922000000000001</v>
+        <v>25.015000000000001</v>
       </c>
       <c r="T5" s="18">
-        <v>25.640999999999998</v>
+        <v>25.155999999999999</v>
       </c>
       <c r="U5" s="18">
-        <v>25.422000000000001</v>
+        <v>25.626000000000001</v>
       </c>
       <c r="V5" s="18">
-        <v>25.545999999999999</v>
+        <v>25.469000000000001</v>
       </c>
       <c r="W5" s="18">
-        <v>25.515999999999998</v>
+        <v>25.312000000000001</v>
       </c>
       <c r="X5" s="18">
-        <v>25.501000000000001</v>
+        <v>25.484999999999999</v>
       </c>
       <c r="BA5" s="19"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>6528</v>
       </c>
       <c r="C6" s="18">
+        <v>6570.92</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6565.05</v>
+      </c>
+      <c r="E6" s="18">
+        <v>6565.05</v>
+      </c>
+      <c r="F6" s="18">
+        <v>6564.73</v>
+      </c>
+      <c r="G6" s="18">
+        <v>6542.81</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6571.99</v>
+      </c>
+      <c r="I6" s="18">
+        <v>6564.73</v>
+      </c>
+      <c r="J6" s="18">
+        <v>6552.3</v>
+      </c>
+      <c r="K6" s="18">
         <v>6565.1</v>
       </c>
-      <c r="D6" s="18">
-        <v>6556.12</v>
-      </c>
-      <c r="E6" s="18">
-        <v>6570.92</v>
-      </c>
-      <c r="F6" s="18">
-        <v>6590</v>
-      </c>
-      <c r="G6" s="18">
-        <v>6556.12</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="L6" s="18">
         <v>6564.73</v>
-      </c>
-      <c r="I6" s="18">
-        <v>6570.92</v>
-      </c>
-      <c r="J6" s="18">
-        <v>6575.78</v>
-      </c>
-      <c r="K6" s="18">
-        <v>6570.92</v>
-      </c>
-      <c r="L6" s="18">
-        <v>6552.3</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="18">
-        <v>78.203000000000003</v>
+        <v>78.343999999999994</v>
       </c>
       <c r="P6" s="18">
-        <v>78.063000000000002</v>
+        <v>78.313000000000002</v>
       </c>
       <c r="Q6" s="18">
-        <v>78.453000000000003</v>
+        <v>78.25</v>
       </c>
       <c r="R6" s="18">
-        <v>79.593999999999994</v>
+        <v>77.734999999999999</v>
       </c>
       <c r="S6" s="18">
-        <v>80.031000000000006</v>
+        <v>76</v>
       </c>
       <c r="T6" s="18">
-        <v>78.265000000000001</v>
+        <v>75.968000000000004</v>
       </c>
       <c r="U6" s="18">
-        <v>78.891000000000005</v>
+        <v>76.47</v>
       </c>
       <c r="V6" s="18">
-        <v>80.218999999999994</v>
+        <v>76.686999999999998</v>
       </c>
       <c r="W6" s="18">
-        <v>79.125</v>
+        <v>77.328000000000003</v>
       </c>
       <c r="X6" s="18">
-        <v>77.891000000000005</v>
+        <v>77.921000000000006</v>
       </c>
       <c r="BA6" s="19"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>15780</v>
       </c>
       <c r="C7" s="18">
+        <v>15778.4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>15779.2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15779.2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>15779.2</v>
+      </c>
+      <c r="G7" s="18">
         <v>15785</v>
       </c>
-      <c r="D7" s="18">
-        <v>15780.6</v>
-      </c>
-      <c r="E7" s="18">
-        <v>15778.4</v>
-      </c>
-      <c r="F7" s="18">
-        <v>15783.7</v>
-      </c>
-      <c r="G7" s="18">
-        <v>15755.5</v>
-      </c>
       <c r="H7" s="18">
-        <v>15783.7</v>
+        <v>15779.2</v>
       </c>
       <c r="I7" s="18">
-        <v>15778.4</v>
+        <v>15771.3</v>
       </c>
       <c r="J7" s="18">
-        <v>15776.9</v>
+        <v>15802.1</v>
       </c>
       <c r="K7" s="18">
-        <v>15778.4</v>
+        <v>15800</v>
       </c>
       <c r="L7" s="18">
-        <v>15795.6</v>
+        <v>15808.7</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>88</v>
       </c>
       <c r="O7" s="18">
-        <v>161.98400000000001</v>
+        <v>165.34399999999999</v>
       </c>
       <c r="P7" s="18">
-        <v>162.96899999999999</v>
+        <v>165.31200000000001</v>
       </c>
       <c r="Q7" s="18">
-        <v>164.93799999999999</v>
+        <v>164.953</v>
       </c>
       <c r="R7" s="18">
-        <v>165.51499999999999</v>
+        <v>166.48500000000001</v>
       </c>
       <c r="S7" s="18">
-        <v>162.31299999999999</v>
+        <v>163.578</v>
       </c>
       <c r="T7" s="18">
-        <v>164.34399999999999</v>
+        <v>165.48500000000001</v>
       </c>
       <c r="U7" s="18">
-        <v>162.797</v>
+        <v>165.06299999999999</v>
       </c>
       <c r="V7" s="18">
-        <v>163.51599999999999</v>
+        <v>166.64099999999999</v>
       </c>
       <c r="W7" s="18">
-        <v>162.828</v>
+        <v>165.93700000000001</v>
       </c>
       <c r="X7" s="18">
-        <v>163.672</v>
+        <v>167.46899999999999</v>
       </c>
       <c r="BA7" s="19"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>2634.70097254335</v>
       </c>
       <c r="C8" s="18">
-        <v>2629.1</v>
+        <v>2603.5100000000002</v>
       </c>
       <c r="D8" s="18">
-        <v>2605.1999999999998</v>
+        <v>2620.77</v>
       </c>
       <c r="E8" s="18">
-        <v>2602.81</v>
+        <v>2587.81</v>
       </c>
       <c r="F8" s="18">
-        <v>2592.25</v>
+        <v>2611.6</v>
       </c>
       <c r="G8" s="18">
-        <v>2624.06</v>
+        <v>2598.35</v>
       </c>
       <c r="H8" s="18">
-        <v>2609.0300000000002</v>
+        <v>2608.2600000000002</v>
       </c>
       <c r="I8" s="18">
-        <v>2647.42</v>
+        <v>2619.37</v>
       </c>
       <c r="J8" s="18">
-        <v>2625.89</v>
+        <v>2588.66</v>
       </c>
       <c r="K8" s="18">
         <v>2591.81</v>
       </c>
       <c r="L8" s="18">
-        <v>2602.81</v>
+        <v>2597.17</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>89</v>
       </c>
       <c r="O8" s="18">
-        <v>395.392</v>
+        <v>393.76600000000002</v>
       </c>
       <c r="P8" s="18">
-        <v>394.50099999999998</v>
+        <v>394.56400000000002</v>
       </c>
       <c r="Q8" s="18">
-        <v>392.5</v>
+        <v>389.65699999999998</v>
       </c>
       <c r="R8" s="18">
-        <v>392.79599999999999</v>
+        <v>392.79700000000003</v>
       </c>
       <c r="S8" s="18">
-        <v>396.90600000000001</v>
+        <v>389.56200000000001</v>
       </c>
       <c r="T8" s="18">
-        <v>392.42200000000003</v>
+        <v>388.45299999999997</v>
       </c>
       <c r="U8" s="18">
-        <v>397.15699999999998</v>
+        <v>394.67099999999999</v>
       </c>
       <c r="V8" s="18">
-        <v>395.20299999999997</v>
+        <v>386.37599999999998</v>
       </c>
       <c r="W8" s="18">
-        <v>394.702</v>
+        <v>390.85899999999998</v>
       </c>
       <c r="X8" s="18">
-        <v>391.56200000000001</v>
+        <v>392.92200000000003</v>
       </c>
       <c r="BA8" s="19"/>
     </row>
@@ -2934,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -2948,39 +2939,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="26"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2990,7 +2981,7 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
@@ -3009,15 +3000,15 @@
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>-1.3754471368573329E-3</v>
+        <v>-2.5287203971895433E-3</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>-6.0659829663556319E-4</v>
+        <v>-2.5287203971897654E-3</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>6.8407</v>
+        <v>6.8950000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3033,19 +3024,19 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>2.0717011128775775E-2</v>
+        <v>2.1376788553259196E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>2.5966772655007908E-2</v>
+        <v>2.4118282988871309E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.4958664546899998E-2</v>
+        <v>3.2879173290938146E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>25.623499999999996</v>
+        <v>25.406299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3061,19 +3052,19 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>3.7224264705881804E-3</v>
+        <v>2.2686887254903532E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>6.0188419117648273E-3</v>
+        <v>5.3218443627451872E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>9.4975490196078649E-3</v>
+        <v>6.7386642156861409E-3</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>78.873500000000007</v>
+        <v>77.301600000000008</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3089,19 +3080,19 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-1.5525982256020532E-3</v>
+        <v>-5.5133079847913269E-4</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-2.4081115335916614E-5</v>
+        <v>3.9480354879595225E-4</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>9.8859315589350238E-4</v>
+        <v>1.8187579214195004E-3</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>163.48759999999999</v>
+        <v>165.62670000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -3117,19 +3108,19 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-1.6279256352171978E-2</v>
+        <v>-1.7797455207254509E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-8.22217502824929E-3</v>
+        <v>-1.2134193928082793E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.8275032306122068E-3</v>
+        <v>-5.2874966413748448E-3</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>394.31409999999994</v>
+        <v>391.36269999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFEBC1-B02E-4457-A84E-613175B72C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE6B7A6-8AC5-46FE-BC74-5F0853F2221D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>1.9.4</t>
   </si>
   <si>
-    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V273"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2488,7 +2488,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="17">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="17">
         <v>1509</v>
@@ -2519,7 +2519,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="17">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q3" s="17">
         <v>1509</v>
@@ -2630,7 +2630,7 @@
         <v>649.68100000000004</v>
       </c>
       <c r="D5" s="18">
-        <v>642.44600000000003</v>
+        <v>649.68100000000004</v>
       </c>
       <c r="E5" s="18">
         <v>642.53200000000004</v>
@@ -2702,7 +2702,7 @@
         <v>6570.92</v>
       </c>
       <c r="D6" s="18">
-        <v>6565.05</v>
+        <v>6543.62</v>
       </c>
       <c r="E6" s="18">
         <v>6565.05</v>
@@ -2774,7 +2774,7 @@
         <v>15778.4</v>
       </c>
       <c r="D7" s="18">
-        <v>15779.2</v>
+        <v>15778.4</v>
       </c>
       <c r="E7" s="18">
         <v>15779.2</v>
@@ -2846,7 +2846,7 @@
         <v>2603.5100000000002</v>
       </c>
       <c r="D8" s="18">
-        <v>2620.77</v>
+        <v>2586.77</v>
       </c>
       <c r="E8" s="18">
         <v>2587.81</v>
@@ -2926,7 +2926,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>2.4118282988871309E-2</v>
+        <v>2.5268521462639359E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>5.3218443627451872E-3</v>
+        <v>4.9935661764706207E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>3.9480354879595225E-4</v>
+        <v>3.8973384030405178E-4</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3108,15 +3108,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-1.7797455207254509E-2</v>
+        <v>-1.8192186909575914E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.2134193928082793E-2</v>
+        <v>-1.3424662954902855E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>-5.2874966413748448E-3</v>
+        <v>-5.8188662406537528E-3</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE6B7A6-8AC5-46FE-BC74-5F0853F2221D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83802E2-A09A-41A2-AEC3-AE399211052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>1.9.4</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2488,7 +2488,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="17">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="17">
         <v>1509</v>
@@ -2519,7 +2519,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="17">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q3" s="17">
         <v>1509</v>
@@ -2630,7 +2630,7 @@
         <v>649.68100000000004</v>
       </c>
       <c r="D5" s="18">
-        <v>649.68100000000004</v>
+        <v>642.44600000000003</v>
       </c>
       <c r="E5" s="18">
         <v>642.53200000000004</v>
@@ -2702,7 +2702,7 @@
         <v>6570.92</v>
       </c>
       <c r="D6" s="18">
-        <v>6543.62</v>
+        <v>6565.05</v>
       </c>
       <c r="E6" s="18">
         <v>6565.05</v>
@@ -2774,7 +2774,7 @@
         <v>15778.4</v>
       </c>
       <c r="D7" s="18">
-        <v>15778.4</v>
+        <v>15779.2</v>
       </c>
       <c r="E7" s="18">
         <v>15779.2</v>
@@ -2846,7 +2846,7 @@
         <v>2603.5100000000002</v>
       </c>
       <c r="D8" s="18">
-        <v>2586.77</v>
+        <v>2620.77</v>
       </c>
       <c r="E8" s="18">
         <v>2587.81</v>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>2.5268521462639359E-2</v>
+        <v>2.4118282988871309E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>4.9935661764706207E-3</v>
+        <v>5.3218443627451872E-3</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>3.8973384030405178E-4</v>
+        <v>3.9480354879595225E-4</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3108,15 +3108,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-1.8192186909575914E-2</v>
+        <v>-1.7797455207254509E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-1.3424662954902855E-2</v>
+        <v>-1.2134193928082793E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>-5.8188662406537528E-3</v>
+        <v>-5.2874966413748448E-3</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
